--- a/public/preprocessing/@aburizalbakrie.xlsx
+++ b/public/preprocessing/@aburizalbakrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23499</v>
+        <v>30743</v>
       </c>
       <c r="C2" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>saya bersama ketua umum partai golkar berbagai periode tadi malam menghadiri acara tasyakuran peresmian gedung bar</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['saya', 'bersama', 'ketua', 'umum', 'partai', 'golkar', 'berbagai', 'periode', 'tadi', 'malam', 'menghadiri', 'acara', 'tasyakuran', 'peresmian', 'gedung', 'bar']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['ketua', 'partai', 'golkar', 'periode', 'malam', 'menghadiri', 'acara', 'tasyakuran', 'peresmian', 'gedung', 'bar']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['ketua', 'partai', 'golkar', 'periode', 'malam', 'hadir', 'acara', 'tasyakur', 'resmi', 'gedung', 'bar']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23500</v>
+        <v>30744</v>
       </c>
       <c r="C3" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt terima kasih pak edy dan mas bobby atas waktu dan diskusinya terima kasih juga rekanrakan kadin sumut yang menemani </t>
+          <t>rt di viva ada pak arief yahya yang punya pengalaman tahun mengawal transformasi digital dan beliau akan mengawal ini</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rt', 'terima', 'kasih', 'pak', 'edy', 'dan', 'mas', 'bobby', 'atas', 'waktu', 'dan', 'diskusinya', 'terima', 'kasih', 'juga', 'rekanrakan', 'kadin', 'sumut', 'yang', 'menemani']</t>
+          <t>['rt', 'di', 'viva', 'ada', 'pak', 'arief', 'yahya', 'yang', 'punya', 'pengalaman', 'tahun', 'mengawal', 'transformasi', 'digital', 'dan', 'beliau', 'akan', 'mengawal', 'ini']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'di', 'viva', 'ada', 'pak', 'arief', 'yahya', 'yang', 'punya', 'pengalaman', 'tahun', 'mengawal', 'transformasi', 'digital', 'dan', 'beliau', 'akan', 'mengawal', 'ini']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'edy', 'mas', 'bobby', 'diskusinya', 'terima', 'kasih', 'rekanrakan', 'kadin', 'sumut', 'menemani']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'edy', 'mas', 'bobby', 'diskusi', 'terima', 'kasih', 'rekanrakan', 'kadin', 'sumut', 'tani']</t>
+          <t>['viva', 'arief', 'yahya', 'pengalaman', 'mengawal', 'transformasi', 'digital', 'beliau', 'mengawal']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['viva', 'arief', 'yahya', 'alam', 'awal', 'transformasi', 'digital', 'beliau', 'awal']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23501</v>
+        <v>30745</v>
       </c>
       <c r="C4" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt bagi saya pengabdian di kadin bukan hal yang baru saya sudah tahun mengabdi di organisasi ini meneruskan legacy kel</t>
+          <t>rt selain itu kita juga akan bekerjasama dengan provider teknologi terbaik di dunia dan untuk distribusinya juga akan beke</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'bagi', 'saya', 'pengabdian', 'di', 'kadin', 'bukan', 'hal', 'yang', 'baru', 'saya', 'sudah', 'tahun', 'mengabdi', 'di', 'organisasi', 'ini', 'meneruskan', 'legacy', 'kel']</t>
+          <t>['rt', 'selain', 'itu', 'kita', 'juga', 'akan', 'bekerjasama', 'dengan', 'provider', 'teknologi', 'terbaik', 'di', 'dunia', 'dan', 'untuk', 'distribusinya', 'juga', 'akan', 'beke']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'selain', 'itu', 'kita', 'juga', 'akan', 'bekerja, sama', 'dengan', 'penyedia', 'teknologi', 'terbaik', 'di', 'dunia', 'dan', 'untuk', 'distribusinya', 'juga', 'akan', 'beke']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['pengabdian', 'kadin', 'mengabdi', 'organisasi', 'meneruskan', 'legacy', 'kel']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['abdi', 'kadin', 'abdi', 'organisasi', 'terus', 'legacy', 'kel']</t>
+          <t>['bekerja, sama', 'penyedia', 'teknologi', 'terbaik', 'dunia', 'distribusinya', 'beke']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['kerja sama', 'sedia', 'teknologi', 'baik', 'dunia', 'distribusi', 'beke']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23502</v>
+        <v>30746</v>
       </c>
       <c r="C5" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt saya ucapkan terima kasih atas dukungannya dukungan ini adalah kehormatan bagi saya hasilnya nanti kita serahkan ke for</t>
+          <t>rt kedua kita juga akan menjadi medianya para influencer dan startup dengan antv kita akan membuat platform dan bekerjasa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'ucapkan', 'terima', 'kasih', 'atas', 'dukungannya', 'dukungan', 'ini', 'adalah', 'kehormatan', 'bagi', 'saya', 'hasilnya', 'nanti', 'kita', 'serahkan', 'ke', 'for']</t>
+          <t>['rt', 'kedua', 'kita', 'juga', 'akan', 'menjadi', 'medianya', 'para', 'influencer', 'dan', 'startup', 'dengan', 'antv', 'kita', 'akan', 'membuat', 'platform', 'dan', 'bekerjasa']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'kedua', 'kita', 'juga', 'akan', 'menjadi', 'medianya', 'para', 'influencer', 'dan', 'startup', 'dengan', 'antv', 'kita', 'akan', 'membuat', 'platform', 'dan', 'bekerjasa']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['ucapkan', 'terima', 'kasih', 'dukungannya', 'dukungan', 'kehormatan', 'hasilnya', 'serahkan', 'for']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['ucap', 'terima', 'kasih', 'dukung', 'dukung', 'hormat', 'hasil', 'serah', 'for']</t>
+          <t>['medianya', 'influencer', 'startup', 'antv', 'platform', 'bekerjasa']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['media', 'influencer', 'startup', 'antv', 'platform', 'bekerjasa']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23503</v>
+        <v>30747</v>
       </c>
       <c r="C6" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rt uniknya kami ini samasama berdarah nasution nenek saya roosniah bermarga nasution juga jadi temanteman medansumut</t>
+          <t>rt pertama kita akan jadi community base digital networks kita sudah mengubah vivanews menjadi viva network dengan berbag</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rt', 'uniknya', 'kami', 'ini', 'samasama', 'berdarah', 'nasution', 'nenek', 'saya', 'roosniah', 'bermarga', 'nasution', 'juga', 'jadi', 'temanteman', 'medansumut']</t>
+          <t>['rt', 'pertama', 'kita', 'akan', 'jadi', 'community', 'base', 'digital', 'networks', 'kita', 'sudah', 'mengubah', 'vivanews', 'menjadi', 'viva', 'network', 'dengan', 'berbag']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'pertama', 'kita', 'akan', 'jadi', 'community', 'base', 'digital', 'networks', 'kita', 'sudah', 'mengubah', 'vivanews', 'menjadi', 'viva', 'network', 'dengan', 'berbag']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['uniknya', 'samasama', 'berdarah', 'nasution', 'nenek', 'roosniah', 'bermarga', 'nasution', 'temanteman', 'medansumut']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['unik', 'samasama', 'darah', 'nasution', 'nenek', 'roosniah', 'marga', 'nasution', 'temanteman', 'medansumut']</t>
+          <t>['community', 'base', 'digital', 'networks', 'mengubah', 'vivanews', 'viva', 'network', 'berbag']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['community', 'base', 'digital', 'networks', 'ubah', 'vivanews', 'viva', 'network', 'berbag']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23504</v>
+        <v>30748</v>
       </c>
       <c r="C7" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>rt selain dengan pak gubernur saya juga bersilaturahmi dengan walikota medan bobby nasution banyak yang kami diskusikan</t>
+          <t>rt lalu setelah ini kita mau ke mana jawabannya adalah viva reloaded viva akan bertransformasi menjawab tantangan dis</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['rt', 'selain', 'dengan', 'pak', 'gubernur', 'saya', 'juga', 'bersilaturahmi', 'dengan', 'walikota', 'medan', 'bobby', 'nasution', 'banyak', 'yang', 'kami', 'diskusikan']</t>
+          <t>['rt', 'lalu', 'setelah', 'ini', 'kita', 'mau', 'ke', 'mana', 'jawabannya', 'adalah', 'viva', 'reloaded', 'viva', 'akan', 'bertransformasi', 'menjawab', 'tantangan', 'dis']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'lalu', 'setelah', 'ini', 'kita', 'mau', 'ke', 'mana', 'jawabannya', 'adalah', 'viva', 'reloaded', 'viva', 'akan', 'bertransformasi', 'menjawab', 'tantangan', 'diskualifikasi']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['gubernur', 'bersilaturahmi', 'walikota', 'medan', 'bobby', 'nasution', 'diskusikan']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['gubernur', 'silaturahmi', 'walikota', 'medan', 'bobby', 'nasution', 'diskusi']</t>
+          <t>['jawabannya', 'viva', 'reloaded', 'viva', 'bertransformasi', 'tantangan', 'diskualifikasi']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['jawab', 'viva', 'reloaded', 'viva', 'transformasi', 'tantang', 'diskualifikasi']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23505</v>
+        <v>30749</v>
       </c>
       <c r="C8" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt beliau tadi juga mendoakan saya sehat dan sukses selalu</t>
+          <t>rt rapat umum pemegang saham luar biasa rupslb pt visi media asia tbk viva yang digelar hari ini menyetujui rencana ter</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'beliau', 'tadi', 'juga', 'mendoakan', 'saya', 'sehat', 'dan', 'sukses', 'selalu']</t>
+          <t>['rt', 'rapat', 'umum', 'pemegang', 'saham', 'luar', 'biasa', 'rupslb', 'pt', 'visi', 'media', 'asia', 'tbk', 'viva', 'yang', 'digelar', 'hari', 'ini', 'menyetujui', 'rencana', 'ter']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['rt', 'rapat', 'umum', 'pemegang', 'saham', 'luar', 'biasa', 'rupslb', 'pt', 'visi', 'media', 'asia', 'tbk', 'viva', 'yang', 'digelar', 'hari', 'ini', 'menyetujui', 'rencana', 'ter']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['beliau', 'mendoakan', 'sehat', 'sukses']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['beliau', 'doa', 'sehat', 'sukses']</t>
+          <t>['rapat', 'pemegang', 'saham', 'rupslb', 'pt', 'visi', 'media', 'asia', 'tbk', 'viva', 'digelar', 'menyetujui', 'rencana', 'ter']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['rapat', 'pegang', 'saham', 'rupslb', 'pt', 'visi', 'media', 'asia', 'tbk', 'viva', 'gelar', 'tuju', 'rencana', 'ter']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23506</v>
+        <v>30750</v>
       </c>
       <c r="C9" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt dalam silaturahmi ini saya ditemani ketua umum kadin sumut ivan batubara dan rekanrekan kadin lainnya banyak sekali </t>
+          <t>rt kami melepas persen saham pt intermedia capital tbk mdia perusahaan induk setara miliar saha</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt', 'dalam', 'silaturahmi', 'ini', 'saya', 'ditemani', 'ketua', 'umum', 'kadin', 'sumut', 'ivan', 'batubara', 'dan', 'rekanrekan', 'kadin', 'lainnya', 'banyak', 'sekali']</t>
+          <t>['rt', 'kami', 'melepas', 'persen', 'saham', 'pt', 'intermedia', 'capital', 'tbk', 'mdia', 'perusahaan', 'induk', 'setara', 'miliar', 'saha']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'kami', 'melepas', 'persen', 'saham', 'pt', 'intermedia', 'capital', 'tbk', 'mdia', 'perusahaan', 'induk', 'setara', 'miliar', 'siapa']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['silaturahmi', 'ditemani', 'ketua', 'kadin', 'sumut', 'ivan', 'batubara', 'rekanrekan', 'kadin']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['silaturahmi', 'tani', 'ketua', 'kadin', 'sumut', 'ivan', 'batubara', 'rekanrekan', 'kadin']</t>
+          <t>['melepas', 'persen', 'saham', 'pt', 'intermedia', 'capital', 'tbk', 'mdia', 'perusahaan', 'induk', 'setara', 'miliar']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['lepas', 'persen', 'saham', 'pt', 'intermedia', 'capital', 'tbk', 'mdia', 'usaha', 'induk', 'tara', 'miliar']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23507</v>
+        <v>30751</v>
       </c>
       <c r="C10" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt kemarin saya terbang ke kota medan sumatera utara dalam kunjungan saya ke medan saya sempat bersilaturahmi dengan </t>
+          <t>rt alhamdulillah setelah melunasi hutangnya pt visi media asia viva sekarang akan fokus ke pengembangan konten dan plat</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rt', 'kemarin', 'saya', 'terbang', 'ke', 'kota', 'medan', 'sumatera', 'utara', 'dalam', 'kunjungan', 'saya', 'ke', 'medan', 'saya', 'sempat', 'bersilaturahmi', 'dengan']</t>
+          <t>['rt', 'alhamdulillah', 'setelah', 'melunasi', 'hutangnya', 'pt', 'visi', 'media', 'asia', 'viva', 'sekarang', 'akan', 'fokus', 'ke', 'pengembangan', 'konten', 'dan', 'plat']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'alhamdulillah', 'setelah', 'melunasi', 'hutangnya', 'pt', 'visi', 'media', 'asia', 'viva', 'sekarang', 'akan', 'fokus', 'ke', 'pengembangan', 'konten', 'dan', 'plat']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['kemarin', 'terbang', 'kota', 'medan', 'sumatera', 'utara', 'kunjungan', 'medan', 'bersilaturahmi']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['kemarin', 'terbang', 'kota', 'medan', 'sumatera', 'utara', 'kunjung', 'medan', 'silaturahmi']</t>
+          <t>['alhamdulillah', 'melunasi', 'hutangnya', 'pt', 'visi', 'media', 'asia', 'viva', 'fokus', 'pengembangan', 'konten', 'plat']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'lunas', 'hutang', 'pt', 'visi', 'media', 'asia', 'viva', 'fokus', 'kembang', 'konten', 'plat']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23508</v>
+        <v>30752</v>
       </c>
       <c r="C11" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rt sebagai bentuk kepedulian terhadap karyawan yang terdampak banjir bakrie tanggap memberikan bantuan berupa paket</t>
+          <t xml:space="preserve">selamat hari raya nyepi dan tahun baru saka bagi saudaraku umat hindu yang merayakannya semoga ketenangan </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rt', 'sebagai', 'bentuk', 'kepedulian', 'terhadap', 'karyawan', 'yang', 'terdampak', 'banjir', 'bakrie', 'tanggap', 'memberikan', 'bantuan', 'berupa', 'paket']</t>
+          <t>['selamat', 'hari', 'raya', 'nyepi', 'dan', 'tahun', 'baru', 'saka', 'bagi', 'saudaraku', 'umat', 'hindu', 'yang', 'merayakannya', 'semoga', 'ketenangan']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'raya', 'nyepi', 'dan', 'tahun', 'baru', 'saka', 'bagi', 'saudaraku', 'umat', 'hindu', 'yang', 'merayakannya', 'semoga', 'ketenangan']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['bentuk', 'kepedulian', 'karyawan', 'terdampak', 'banjir', 'bakrie', 'tanggap', 'bantuan', 'paket']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['bentuk', 'peduli', 'karyawan', 'dampak', 'banjir', 'bakrie', 'tanggap', 'bantu', 'paket']</t>
+          <t>['selamat', 'raya', 'nyepi', 'saka', 'saudaraku', 'umat', 'hindu', 'merayakannya', 'semoga', 'ketenangan']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['selamat', 'raya', 'nyepi', 'saka', 'saudara', 'umat', 'hindu', 'raya', 'moga', 'tenang']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23509</v>
+        <v>30753</v>
       </c>
       <c r="C12" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rt tidak kurang dari karyawan perusahaan bakrie yang rumahnya terendam banjir</t>
+          <t>rt sekali lagi selamat ulang tahun ma semoga panjang umur dan bahagia senantiasa serta selalu jadi idola anak mantu da</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'tidak', 'kurang', 'dari', 'karyawan', 'perusahaan', 'bakrie', 'yang', 'rumahnya', 'terendam', 'banjir']</t>
+          <t>['rt', 'sekali', 'lagi', 'selamat', 'ulang', 'tahun', 'ma', 'semoga', 'panjang', 'umur', 'dan', 'bahagia', 'senantiasa', 'serta', 'selalu', 'jadi', 'idola', 'anak', 'mantu', 'da']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'sekali', 'lagi', 'selamat', 'ulang', 'tahun', 'sama', 'semoga', 'panjang', 'umur', 'dan', 'bahagia', 'senantiasa', 'serta', 'selalu', 'jadi', 'idola', 'anak', 'mantu', 'dan']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['karyawan', 'perusahaan', 'bakrie', 'rumahnya', 'terendam', 'banjir']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['karyawan', 'usaha', 'bakrie', 'rumah', 'rendam', 'banjir']</t>
+          <t>['selamat', 'ulang', 'semoga', 'umur', 'bahagia', 'senantiasa', 'idola', 'anak', 'mantu']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['selamat', 'ulang', 'moga', 'umur', 'bahagia', 'senantiasa', 'idola', 'anak', 'mantu']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23510</v>
+        <v>30754</v>
       </c>
       <c r="C13" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rt bakrie tanggap salurkan paket sembako akibat hujan lebat dengan intensitas tinggi yang melanda wilayah jabodetab</t>
+          <t>rt keseruan ulang tahun ibu saya tatty bakrie yang ke tadi malam meski digelar privat dan hanya dihadiri keluarga in</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rt', 'bakrie', 'tanggap', 'salurkan', 'paket', 'sembako', 'akibat', 'hujan', 'lebat', 'dengan', 'intensitas', 'tinggi', 'yang', 'melanda', 'wilayah', 'jabodetab']</t>
+          <t>['rt', 'keseruan', 'ulang', 'tahun', 'ibu', 'saya', 'tatty', 'bakrie', 'yang', 'ke', 'tadi', 'malam', 'meski', 'digelar', 'privat', 'dan', 'hanya', 'dihadiri', 'keluarga', 'in']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'keseruan', 'ulang', 'tahun', 'ibu', 'saya', 'tatty', 'bakrie', 'yang', 'ke', 'tadi', 'malam', 'meski', 'digelar', 'privat', 'dan', 'hanya', 'dihadiri', 'keluarga', 'in']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['bakrie', 'tanggap', 'salurkan', 'paket', 'sembako', 'akibat', 'hujan', 'lebat', 'intensitas', 'melanda', 'wilayah', 'jabodetab']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['bakrie', 'tanggap', 'salur', 'paket', 'sembako', 'akibat', 'hujan', 'lebat', 'intensitas', 'landa', 'wilayah', 'jabodetab']</t>
+          <t>['keseruan', 'ulang', 'tatty', 'bakrie', 'malam', 'digelar', 'privat', 'dihadiri', 'keluarga', 'in']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['seru', 'ulang', 'tatty', 'bakrie', 'malam', 'gelar', 'privat', 'hadir', 'keluarga', 'in']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23511</v>
+        <v>30755</v>
       </c>
       <c r="C14" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt terima kasih pak atas ucapan selamat ulang tahun dan apresiasi untuk semoga di usianya yg ke tv</t>
+          <t>selamat memperingati isra miraj semoga dapat meningkatkan iman kita kepada allah swt amp kecintaan kepada rasulull</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'terima', 'kasih', 'pak', 'atas', 'ucapan', 'selamat', 'ulang', 'tahun', 'dan', 'apresiasi', 'untuk', 'semoga', 'di', 'usianya', 'yg', 'ke', 'tv']</t>
+          <t>['selamat', 'memperingati', 'isra', 'miraj', 'semoga', 'dapat', 'meningkatkan', 'iman', 'kita', 'kepada', 'allah', 'swt', 'amp', 'kecintaan', 'kepada', 'rasulull']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['selamat', 'memperingati', 'isra', 'miraj', 'semoga', 'dapat', 'meningkatkan', 'iman', 'kita', 'kepada', 'allah', 'subhanahu, wa, taala', 'amp', 'kecintaan', 'kepada', 'rasulull']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'ucapan', 'selamat', 'ulang', 'apresiasi', 'semoga', 'usianya', 'tv']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'ucap', 'selamat', 'ulang', 'apresiasi', 'moga', 'usia', 'tv']</t>
+          <t>['selamat', 'memperingati', 'isra', 'miraj', 'semoga', 'meningkatkan', 'iman', 'allah', 'subhanahu, wa, taala', 'kecintaan', 'rasulull']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['selamat', 'ingat', 'isra', 'miraj', 'moga', 'tingkat', 'iman', 'allah', 'subhanahu wa taala', 'cinta', 'rasulull']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23512</v>
+        <v>30756</v>
       </c>
       <c r="C15" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>selamat tahun baru imlek semoga di tahun baru ini dilimpahi rejeki dan kesehatan gong xi fa cai</t>
+          <t>mereka harus fokus bekerja yang baik untuk memajukan daerah dan mensejahterakan masyarakat di belitung timur seka</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['selamat', 'tahun', 'baru', 'imlek', 'semoga', 'di', 'tahun', 'baru', 'ini', 'dilimpahi', 'rejeki', 'dan', 'kesehatan', 'gong', 'xi', 'fa', 'cai']</t>
+          <t>['mereka', 'harus', 'fokus', 'bekerja', 'yang', 'baik', 'untuk', 'memajukan', 'daerah', 'dan', 'mensejahterakan', 'masyarakat', 'di', 'belitung', 'timur', 'seka']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['mereka', 'harus', 'fokus', 'bekerja', 'yang', 'baik', 'untuk', 'memajukan', 'daerah', 'dan', 'mensejahterakan', 'masyarakat', 'di', 'belitung', 'timur', 'seka']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['selamat', 'imlek', 'semoga', 'dilimpahi', 'rejeki', 'kesehatan', 'gong', 'xi', 'fa', 'cai']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['selamat', 'imlek', 'moga', 'limpah', 'rejeki', 'sehat', 'gong', 'xi', 'fa', 'cai']</t>
+          <t>['fokus', 'memajukan', 'daerah', 'mensejahterakan', 'masyarakat', 'belitung', 'timur', 'seka']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['fokus', 'maju', 'daerah', 'sejahtera', 'masyarakat', 'belitung', 'timur', 'seka']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23513</v>
+        <v>30757</v>
       </c>
       <c r="C16" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>terima kasih untuk seluruh keluarga besar bakrie insan bakrie yang selama ini bersama bekerja menjaga dan memaju</t>
+          <t>saya juga berpesan kepada keduanya agar mengemban amanah dengan baik saya wantiwanti agar tidak terjerat korupsi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'untuk', 'seluruh', 'keluarga', 'besar', 'bakrie', 'insan', 'bakrie', 'yang', 'selama', 'ini', 'bersama', 'bekerja', 'menjaga', 'dan', 'memaju']</t>
+          <t>['saya', 'juga', 'berpesan', 'kepada', 'keduanya', 'agar', 'mengemban', 'amanah', 'dengan', 'baik', 'saya', 'wantiwanti', 'agar', 'tidak', 'terjerat', 'korupsi']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['saya', 'juga', 'berpesan', 'kepada', 'keduanya', 'agar', 'mengemban', 'amanah', 'dengan', 'baik', 'saya', 'wantiwanti', 'agar', 'tidak', 'terjerat', 'korupsi']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'keluarga', 'bakrie', 'insan', 'bakrie', 'menjaga', 'memaju']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'keluarga', 'bakrie', 'insan', 'bakrie', 'jaga', 'maju']</t>
+          <t>['berpesan', 'mengemban', 'amanah', 'wantiwanti', 'terjerat', 'korupsi']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['pesan', 'emban', 'amanah', 'wantiwanti', 'jerat', 'korupsi']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23514</v>
+        <v>30758</v>
       </c>
       <c r="C17" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>kini kelompok usaha yang dibangun ayah saya mulai dipimpin oleh generasi ketiga semoga di tangan mereka bakrie se</t>
+          <t>pasangan yang didukung oleh partai golkar ini berjuangan dengan tekad keringat dan pemikiran saya lihat betul</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['kini', 'kelompok', 'usaha', 'yang', 'dibangun', 'ayah', 'saya', 'mulai', 'dipimpin', 'oleh', 'generasi', 'ketiga', 'semoga', 'di', 'tangan', 'mereka', 'bakrie', 'se']</t>
+          <t>['pasangan', 'yang', 'didukung', 'oleh', 'partai', 'golkar', 'ini', 'berjuangan', 'dengan', 'tekad', 'keringat', 'dan', 'pemikiran', 'saya', 'lihat', 'betul']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['pasangan', 'yang', 'didukung', 'oleh', 'partai', 'golkar', 'ini', 'berjuangan', 'dengan', 'tekad', 'keringat', 'dan', 'pemikiran', 'saya', 'lihat', 'betul']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['kelompok', 'usaha', 'dibangun', 'ayah', 'dipimpin', 'generasi', 'ketiga', 'semoga', 'tangan', 'bakrie']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['kelompok', 'usaha', 'bangun', 'ayah', 'pimpin', 'generasi', 'tiga', 'moga', 'tangan', 'bakrie']</t>
+          <t>['pasangan', 'didukung', 'partai', 'golkar', 'berjuangan', 'tekad', 'keringat', 'pemikiran', 'lihat']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['pasang', 'dukung', 'partai', 'golkar', 'juang', 'tekad', 'keringat', 'pikir', 'lihat']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23515</v>
+        <v>30759</v>
       </c>
       <c r="C18" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>hari ini kelompok usaha bakrie telah tahun berdiri hampir delapan dekade melewati pasang surut dan terus berk</t>
+          <t>sore ini saya kedatangan tamu dari jauh ada bupati belitung timur burhanudin dan wakil bupati khairil anwar say</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'kelompok', 'usaha', 'bakrie', 'telah', 'tahun', 'berdiri', 'hampir', 'delapan', 'dekade', 'melewati', 'pasang', 'surut', 'dan', 'terus', 'berk']</t>
+          <t>['sore', 'ini', 'saya', 'kedatangan', 'tamu', 'dari', 'jauh', 'ada', 'bupati', 'belitung', 'timur', 'burhanudin', 'dan', 'wakil', 'bupati', 'khairil', 'anwar', 'say']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['sore', 'ini', 'saya', 'kedatangan', 'tamu', 'dari', 'jauh', 'ada', 'bupati', 'belitung', 'timur', 'burhanudin', 'dan', 'wakil', 'bupati', 'khairil', 'anwar', 'sayang']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['kelompok', 'usaha', 'bakrie', 'berdiri', 'delapan', 'dekade', 'melewati', 'pasang', 'surut', 'berk']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['kelompok', 'usaha', 'bakrie', 'diri', 'delapan', 'dekade', 'lewat', 'pasang', 'surut', 'berk']</t>
+          <t>['sore', 'kedatangan', 'tamu', 'bupati', 'belitung', 'timur', 'burhanudin', 'wakil', 'bupati', 'khairil', 'anwar', 'sayang']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['sore', 'datang', 'tamu', 'bupati', 'belitung', 'timur', 'burhanudin', 'wakil', 'bupati', 'khairil', 'anwar', 'sayang']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23516</v>
+        <v>30760</v>
       </c>
       <c r="C19" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">innalilahi wa innailaihi rojiuun mari kita berdoa semoga almarhum husnul khotimah diterima amal ibadahnya dan </t>
+          <t>rt selain itu pemberdayaan daerah juga harus terus didorong intinya bukan hanya harus tumbuh tapi harus tumbuh bersama</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['innalilahi', 'wa', 'innailaihi', 'rojiuun', 'mari', 'kita', 'berdoa', 'semoga', 'almarhum', 'husnul', 'khotimah', 'diterima', 'amal', 'ibadahnya', 'dan']</t>
+          <t>['rt', 'selain', 'itu', 'pemberdayaan', 'daerah', 'juga', 'harus', 'terus', 'didorong', 'intinya', 'bukan', 'hanya', 'harus', 'tumbuh', 'tapi', 'harus', 'tumbuh', 'bersama']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'selain', 'itu', 'pemberdayaan', 'daerah', 'juga', 'harus', 'terus', 'didorong', 'intinya', 'bukan', 'hanya', 'harus', 'tumbuh', 'tapi', 'harus', 'tumbuh', 'bersama']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['innalilahi', 'wa', 'innailaihi', 'rojiuun', 'mari', 'berdoa', 'semoga', 'almarhum', 'husnul', 'khotimah', 'diterima', 'amal', 'ibadahnya']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['innalilahi', 'wa', 'innailaihi', 'rojiuun', 'mari', 'doa', 'moga', 'almarhum', 'husnul', 'khotimah', 'terima', 'amal', 'ibadah']</t>
+          <t>['pemberdayaan', 'daerah', 'didorong', 'intinya', 'tumbuh', 'tumbuh']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['daya', 'daerah', 'dorong', 'inti', 'tumbuh', 'tumbuh']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23517</v>
+        <v>30761</v>
       </c>
       <c r="C20" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">prof fiz juga contoh orang yang sukses di usia yang masih sangat muda namun sayang beliau juga harus berpulang </t>
+          <t>rt di saat sulit seperti ini memang banyak masalah namun bersama dengan itu juga banyak peluangnya ada uu cipta kerja st</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['prof', 'fiz', 'juga', 'contoh', 'orang', 'yang', 'sukses', 'di', 'usia', 'yang', 'masih', 'sangat', 'muda', 'namun', 'sayang', 'beliau', 'juga', 'harus', 'berpulang']</t>
+          <t>['rt', 'di', 'saat', 'sulit', 'seperti', 'ini', 'memang', 'banyak', 'masalah', 'namun', 'bersama', 'dengan', 'itu', 'juga', 'banyak', 'peluangnya', 'ada', 'uu', 'cipta', 'kerja', 'st']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'di', 'saat', 'sulit', 'seperti', 'ini', 'memang', 'banyak', 'masalah', 'namun', 'bersama', 'dengan', 'itu', 'juga', 'banyak', 'peluangnya', 'ada', 'undang, undang', 'cipta', 'kerja', 'st']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['prof', 'fiz', 'contoh', 'orang', 'sukses', 'usia', 'muda', 'sayang', 'beliau', 'berpulang']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['prof', 'fiz', 'contoh', 'orang', 'sukses', 'usia', 'muda', 'sayang', 'beliau', 'pulang']</t>
+          <t>['sulit', 'peluangnya', 'undang, undang', 'cipta', 'kerja', 'st']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['sulit', 'peluang', 'undang undang', 'cipta', 'kerja', 'st']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23518</v>
+        <v>30762</v>
       </c>
       <c r="C21" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>saya mengenal prof fiz ini tidak hanya sebagai komisaris independen bakrie amp brothers dan rektor tap</t>
+          <t>rt kepada temanteman tadi saya berpesan kadin ke depan harus bersatu kompak dan harus hadir di manamana usaha di saa</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['saya', 'mengenal', 'prof', 'fiz', 'ini', 'tidak', 'hanya', 'sebagai', 'komisaris', 'independen', 'bakrie', 'amp', 'brothers', 'dan', 'rektor', 'tap']</t>
+          <t>['rt', 'kepada', 'temanteman', 'tadi', 'saya', 'berpesan', 'kadin', 'ke', 'depan', 'harus', 'bersatu', 'kompak', 'dan', 'harus', 'hadir', 'di', 'manamana', 'usaha', 'di', 'saa']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'kepada', 'temanteman', 'tadi', 'saya', 'berpesan', 'kamar, dagang, dan, industri', 'ke', 'depan', 'harus', 'bersatu', 'kompak', 'dan', 'harus', 'hadir', 'di', 'manamana', 'usaha', 'di', 'saa']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['mengenal', 'prof', 'fiz', 'komisaris', 'independen', 'bakrie', 'brothers', 'rektor', 'tap']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['kenal', 'prof', 'fiz', 'komisaris', 'independen', 'bakrie', 'brothers', 'rektor', 'tap']</t>
+          <t>['temanteman', 'berpesan', 'kamar, dagang, dan, industri', 'bersatu', 'kompak', 'hadir', 'manamana', 'usaha', 'saa']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['temanteman', 'pesan', 'kamar dagang dan industri', 'satu', 'kompak', 'hadir', 'manamana', 'usaha', 'saa']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23519</v>
+        <v>30763</v>
       </c>
       <c r="C22" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>saya turut berdukacita yang mendalam atas wafatnya prof firmanzah pada hari ini sabtu februari pukul</t>
+          <t>rt terima kasih kang cucu dan temanteman jabar dukungan ini suatu kehormatan dan amanah besar bagi saya</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['saya', 'turut', 'berdukacita', 'yang', 'mendalam', 'atas', 'wafatnya', 'prof', 'firmanzah', 'pada', 'hari', 'ini', 'sabtu', 'februari', 'pukul']</t>
+          <t>['rt', 'terima', 'kasih', 'kang', 'cucu', 'dan', 'temanteman', 'jabar', 'dukungan', 'ini', 'suatu', 'kehormatan', 'dan', 'amanah', 'besar', 'bagi', 'saya']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'terima', 'kasih', 'kang', 'cucu', 'dan', 'temanteman', 'jabar', 'dukungan', 'ini', 'suatu', 'kehormatan', 'dan', 'amanah', 'besar', 'bagi', 'saya']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['berdukacita', 'mendalam', 'wafatnya', 'prof', 'firmanzah', 'sabtu', 'februari']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['dukacita', 'dalam', 'wafat', 'prof', 'firmanzah', 'sabtu', 'februari']</t>
+          <t>['terima', 'kasih', 'kang', 'cucu', 'temanteman', 'jabar', 'dukungan', 'kehormatan', 'amanah']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'kang', 'cucu', 'temanteman', 'jabar', 'dukung', 'hormat', 'amanah']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23520</v>
+        <v>30764</v>
       </c>
       <c r="C23" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>selamat atas soft launching golkar institute semoga golkar institute bisa menghidupkan kultur dan atmosfir intele</t>
+          <t xml:space="preserve">rt ketua umum kadin jabar cucu sutara menyatakan kadin jabar secara mantab dan bulat mendukung saya jadi ketua umum kadin </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['selamat', 'atas', 'soft', 'launching', 'golkar', 'institute', 'semoga', 'golkar', 'institute', 'bisa', 'menghidupkan', 'kultur', 'dan', 'atmosfir', 'intele']</t>
+          <t>['rt', 'ketua', 'umum', 'kadin', 'jabar', 'cucu', 'sutara', 'menyatakan', 'kadin', 'jabar', 'secara', 'mantab', 'dan', 'bulat', 'mendukung', 'saya', 'jadi', 'ketua', 'umum', 'kadin']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'ketua', 'umum', 'kamar, dagang, dan, industri', 'jabar', 'cucu', 'sutara', 'menyatakan', 'kamar, dagang, dan, industri', 'jabar', 'secara', 'mantap', 'dan', 'bulat', 'mendukung', 'saya', 'jadi', 'ketua', 'umum', 'kamar, dagang, dan, industri']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['selamat', 'soft', 'launching', 'golkar', 'institute', 'semoga', 'golkar', 'institute', 'menghidupkan', 'kultur', 'atmosfir', 'intele']</t>
+          <t>&lt;FreqDist with 15 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['selamat', 'soft', 'launching', 'golkar', 'institute', 'moga', 'golkar', 'institute', 'hidup', 'kultur', 'atmosfir', 'intele']</t>
+          <t>['ketua', 'kamar, dagang, dan, industri', 'jabar', 'cucu', 'sutara', 'kamar, dagang, dan, industri', 'jabar', 'mantap', 'bulat', 'mendukung', 'ketua', 'kamar, dagang, dan, industri']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['ketua', 'kamar dagang dan industri', 'jabar', 'cucu', 'sutara', 'kamar dagang dan industri', 'jabar', 'mantap', 'bulat', 'dukung', 'ketua', 'kamar dagang dan industri']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>23521</v>
+        <v>30765</v>
       </c>
       <c r="C24" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>selamat hari lahir ke semoga terus maju dan terus menebarkan islam yang moderat dan komitmen keb</t>
+          <t>rt alhamdulillah dalam pertemuan yang digelar dengan protokol kesehatan yang ketat hadir lengkap pengurus kadin jabar ter</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'lahir', 'ke', 'semoga', 'terus', 'maju', 'dan', 'terus', 'menebarkan', 'islam', 'yang', 'moderat', 'dan', 'komitmen', 'keb']</t>
+          <t>['rt', 'alhamdulillah', 'dalam', 'pertemuan', 'yang', 'digelar', 'dengan', 'protokol', 'kesehatan', 'yang', 'ketat', 'hadir', 'lengkap', 'pengurus', 'kadin', 'jabar', 'ter']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'alhamdulillah', 'dalam', 'pertemuan', 'yang', 'digelar', 'dengan', 'protokol', 'kesehatan', 'yang', 'ketat', 'hadir', 'lengkap', 'pengurus', 'kamar, dagang, dan, industri', 'jabar', 'ter']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['selamat', 'lahir', 'semoga', 'maju', 'menebarkan', 'islam', 'moderat', 'komitmen', 'keb']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['selamat', 'lahir', 'moga', 'maju', 'tebar', 'islam', 'moderat', 'komitmen', 'keb']</t>
+          <t>['alhamdulillah', 'pertemuan', 'digelar', 'protokol', 'kesehatan', 'ketat', 'hadir', 'lengkap', 'pengurus', 'kamar, dagang, dan, industri', 'jabar', 'ter']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'temu', 'gelar', 'protokol', 'sehat', 'ketat', 'hadir', 'lengkap', 'urus', 'kamar dagang dan industri', 'jabar', 'ter']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23522</v>
+        <v>30766</v>
       </c>
       <c r="C25" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>rt mari bersamasama mewujudkan recovery wilayah terdampak bencana mari berdonasi melalui donasi melalui</t>
+          <t>rt dari rumah dinas gubernur di gedung pakuan saya langsung bertemu temanteman kadin jabar saya ditemani para wakil ket</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rt', 'mari', 'bersamasama', 'mewujudkan', 'recovery', 'wilayah', 'terdampak', 'bencana', 'mari', 'berdonasi', 'melalui', 'donasi', 'melalui']</t>
+          <t>['rt', 'dari', 'rumah', 'dinas', 'gubernur', 'di', 'gedung', 'pakuan', 'saya', 'langsung', 'bertemu', 'temanteman', 'kadin', 'jabar', 'saya', 'ditemani', 'para', 'wakil', 'ket']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'dari', 'rumah', 'dinas', 'gubernur', 'di', 'gedung', 'pakuan', 'saya', 'langsung', 'bertemu', 'temanteman', 'kamar, dagang, dan, industri', 'jabar', 'saya', 'ditemani', 'para', 'wakil', 'ket']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['mari', 'bersamasama', 'mewujudkan', 'recovery', 'wilayah', 'terdampak', 'bencana', 'mari', 'berdonasi', 'donasi']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['mari', 'bersamasama', 'wujud', 'recovery', 'wilayah', 'dampak', 'bencana', 'mari', 'donasi', 'donasi']</t>
+          <t>['rumah', 'dinas', 'gubernur', 'gedung', 'pakuan', 'langsung', 'bertemu', 'temanteman', 'kamar, dagang, dan, industri', 'jabar', 'ditemani', 'wakil', 'ket']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['rumah', 'dinas', 'gubernur', 'gedung', 'paku', 'langsung', 'temu', 'temanteman', 'kamar dagang dan industri', 'jabar', 'tani', 'wakil', 'ket']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23523</v>
+        <v>30767</v>
       </c>
       <c r="C26" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt aceh dengan ukurannya yang relatif kecil memang bus ini dapat beroperasi pada ruas jalan yang tidak terlalu lebar hal itu ses</t>
+          <t>rt tadi kang ridwan secara pribadi juga menyatakan dukungannya kepada saya untuk jadi ketua umum kadin indonesia beliau ju</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'aceh', 'dengan', 'ukurannya', 'yang', 'relatif', 'kecil', 'memang', 'bus', 'ini', 'dapat', 'beroperasi', 'pada', 'ruas', 'jalan', 'yang', 'tidak', 'terlalu', 'lebar', 'hal', 'itu', 'ses']</t>
+          <t>['rt', 'tadi', 'kang', 'ridwan', 'secara', 'pribadi', 'juga', 'menyatakan', 'dukungannya', 'kepada', 'saya', 'untuk', 'jadi', 'ketua', 'umum', 'kadin', 'indonesia', 'beliau', 'ju']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'tadi', 'kang', 'ridwan', 'secara', 'pribadi', 'juga', 'menyatakan', 'dukungannya', 'kepada', 'saya', 'untuk', 'jadi', 'ketua', 'umum', 'kamar, dagang, dan, industri', 'indonesia', 'beliau', 'ju']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['aceh', 'ukurannya', 'relatif', 'bus', 'beroperasi', 'ruas', 'jalan', 'lebar', 'ses']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['aceh', 'ukur', 'relatif', 'bus', 'operasi', 'ruas', 'jalan', 'lebar', 'ses']</t>
+          <t>['kang', 'ridwan', 'pribadi', 'dukungannya', 'ketua', 'kamar, dagang, dan, industri', 'indonesia', 'beliau', 'ju']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['kang', 'ridwan', 'pribadi', 'dukung', 'ketua', 'kamar dagang dan industri', 'indonesia', 'beliau', 'ju']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23524</v>
+        <v>30768</v>
       </c>
       <c r="C27" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rt aceh saddam makmur salah satu juru mudi uji coba memberikan penilaian terhadap bus ini selama saya kendarai tidak ada kenda</t>
+          <t>rt bersama kang ridwan saya mendiskusikan banyak hal termasuk soal perekonomian kang ridwan juga titip pada visi misi pere</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'aceh', 'saddam', 'makmur', 'salah', 'satu', 'juru', 'mudi', 'uji', 'coba', 'memberikan', 'penilaian', 'terhadap', 'bus', 'ini', 'selama', 'saya', 'kendarai', 'tidak', 'ada', 'kenda']</t>
+          <t>['rt', 'bersama', 'kang', 'ridwan', 'saya', 'mendiskusikan', 'banyak', 'hal', 'termasuk', 'soal', 'perekonomian', 'kang', 'ridwan', 'juga', 'titip', 'pada', 'visi', 'misi', 'pere']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'bersama', 'kang', 'ridwan', 'saya', 'mendiskusikan', 'banyak', 'hal', 'termasuk', 'soal', 'perekonomian', 'kang', 'ridwan', 'juga', 'titip', 'pada', 'visi', 'misi', 'pere']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['aceh', 'saddam', 'makmur', 'salah', 'juru', 'mudi', 'uji', 'coba', 'penilaian', 'bus', 'kendarai', 'kenda']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['aceh', 'saddam', 'makmur', 'salah', 'juru', 'mud', 'uji', 'coba', 'nilai', 'bus', 'kendara', 'kenda']</t>
+          <t>['kang', 'ridwan', 'mendiskusikan', 'perekonomian', 'kang', 'ridwan', 'titip', 'visi', 'misi', 'pere']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['kang', 'ridwan', 'diskusi', 'ekonomi', 'kang', 'ridwan', 'titip', 'visi', 'misi', 'pere']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23525</v>
+        <v>30769</v>
       </c>
       <c r="C28" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt aceh bus listrik telah menyusuri jalanan ibukota banda aceh selama seminggu bus yang difungsikan sebagai feeder trans koetarad</t>
+          <t>rt sampurasun hari ini saya datang ke kota kembang bandung saya ke paris van java untuk silaturahmi dengan temantema</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'aceh', 'bus', 'listrik', 'telah', 'menyusuri', 'jalanan', 'ibukota', 'banda', 'aceh', 'selama', 'seminggu', 'bus', 'yang', 'difungsikan', 'sebagai', 'feeder', 'trans', 'koetarad']</t>
+          <t>['rt', 'sampurasun', 'hari', 'ini', 'saya', 'datang', 'ke', 'kota', 'kembang', 'bandung', 'saya', 'ke', 'paris', 'van', 'java', 'untuk', 'silaturahmi', 'dengan', 'temantema']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['rt', 'sampurasun', 'hari', 'ini', 'saya', 'datang', 'ke', 'kota', 'kembang', 'bandung', 'saya', 'ke', 'paris', 'van', 'java', 'untuk', 'silaturahmi', 'dengan', 'temantema']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['aceh', 'bus', 'listrik', 'menyusuri', 'jalanan', 'ibukota', 'banda', 'aceh', 'seminggu', 'bus', 'difungsikan', 'feeder', 'trans', 'koetarad']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['aceh', 'bus', 'listrik', 'susur', 'jalan', 'ibukota', 'banda', 'aceh', 'minggu', 'bus', 'fungsi', 'feeder', 'trans', 'koetarad']</t>
+          <t>['sampurasun', 'kota', 'kembang', 'bandung', 'paris', 'van', 'java', 'silaturahmi', 'temantema']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['sampurasun', 'kota', 'kembang', 'bandung', 'paris', 'van', 'java', 'silaturahmi', 'temantema']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23526</v>
+        <v>30770</v>
       </c>
       <c r="C29" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rt semoga bencana ini bisa segera kita lewati semoga yang rusak dan sirna bisa kita bangun kembali semoga juga pandemi se</t>
+          <t>rt sekali lagi terima kasih untuk dukungannya temanteman ini amanah besar yang harus saya jaga dengan baik semoga cita</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'semoga', 'bencana', 'ini', 'bisa', 'segera', 'kita', 'lewati', 'semoga', 'yang', 'rusak', 'dan', 'sirna', 'bisa', 'kita', 'bangun', 'kembali', 'semoga', 'juga', 'pandemi', 'se']</t>
+          <t>['rt', 'sekali', 'lagi', 'terima', 'kasih', 'untuk', 'dukungannya', 'temanteman', 'ini', 'amanah', 'besar', 'yang', 'harus', 'saya', 'jaga', 'dengan', 'baik', 'semoga', 'cita']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'sekali', 'lagi', 'terima', 'kasih', 'untuk', 'dukungannya', 'temanteman', 'ini', 'amanah', 'besar', 'yang', 'harus', 'saya', 'jaga', 'dengan', 'baik', 'semoga', 'cita']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['semoga', 'bencana', 'lewati', 'semoga', 'rusak', 'sirna', 'bangun', 'semoga', 'pandemi']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['moga', 'bencana', 'lewat', 'moga', 'rusak', 'sirna', 'bangun', 'moga', 'pandemi']</t>
+          <t>['terima', 'kasih', 'dukungannya', 'temanteman', 'amanah', 'jaga', 'semoga', 'cita']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'dukung', 'temanteman', 'amanah', 'jaga', 'moga', 'cita']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23527</v>
+        <v>30771</v>
       </c>
       <c r="C30" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>rt update kegiatan bisa dipantau di akun terkait seperti untuk dan sebagainy</t>
+          <t>rt di daerah ini banyak sekali potensinya dengan soliditas dan gotong royong atau kolaborasi saya yakin temanteman di da</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'update', 'kegiatan', 'bisa', 'dipantau', 'di', 'akun', 'terkait', 'seperti', 'untuk', 'dan', 'sebagainy']</t>
+          <t>['rt', 'di', 'daerah', 'ini', 'banyak', 'sekali', 'potensinya', 'dengan', 'soliditas', 'dan', 'gotong', 'royong', 'atau', 'kolaborasi', 'saya', 'yakin', 'temanteman', 'di', 'da']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'di', 'daerah', 'ini', 'banyak', 'sekali', 'potensinya', 'dengan', 'soliditas', 'dan', 'gotong', 'royong', 'atau', 'kolaborasi', 'saya', 'yakin', 'temanteman', 'di', 'dan']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['update', 'kegiatan', 'dipantau', 'akun', 'terkait', 'sebagainy']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['update', 'giat', 'pantau', 'akun', 'kait', 'sebagainy']</t>
+          <t>['daerah', 'potensinya', 'soliditas', 'gotong', 'royong', 'kolaborasi', 'temanteman']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['daerah', 'potensi', 'soliditas', 'gotong', 'royong', 'kolaborasi', 'temanteman']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23528</v>
+        <v>30772</v>
       </c>
       <c r="C31" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rt selain mengerahkan sumber daya yang kami miliki kami juga memfasilitasi publik yang ingin membantu korban bencana melal</t>
+          <t>rt karena dinilai bisa memperjuangkan aspirasi daerah yaitu memberdayakan pengusaha daerah untuk maju bersama mereka juga</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'selain', 'mengerahkan', 'sumber', 'daya', 'yang', 'kami', 'miliki', 'kami', 'juga', 'memfasilitasi', 'publik', 'yang', 'ingin', 'membantu', 'korban', 'bencana', 'melal']</t>
+          <t>['rt', 'karena', 'dinilai', 'bisa', 'memperjuangkan', 'aspirasi', 'daerah', 'yaitu', 'memberdayakan', 'pengusaha', 'daerah', 'untuk', 'maju', 'bersama', 'mereka', 'juga']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'karena', 'dinilai', 'bisa', 'memperjuangkan', 'aspirasi', 'daerah', 'yaitu', 'memberdayakan', 'pengusaha', 'daerah', 'untuk', 'maju', 'bersama', 'mereka', 'juga']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['mengerahkan', 'sumber', 'daya', 'miliki', 'memfasilitasi', 'publik', 'membantu', 'korban', 'bencana', 'melal']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['kerah', 'sumber', 'daya', 'milik', 'fasilitas', 'publik', 'bantu', 'korban', 'bencana', 'melal']</t>
+          <t>['dinilai', 'memperjuangkan', 'aspirasi', 'daerah', 'memberdayakan', 'pengusaha', 'daerah', 'maju']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['nilai', 'juang', 'aspirasi', 'daerah', 'daya', 'usaha', 'daerah', 'maju']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23529</v>
+        <v>30773</v>
       </c>
       <c r="C32" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt alhamdulillah selama ini kami bisa selalu hadir dan membantu di setiap bencana mulai dari fase tanggap darurat sampai re</t>
+          <t>rt dalam pertemuan yang diprakarsai ketua kadin sulut mas rio dondokambey ini hadir juga ketua kadin sulsel sulteng sulba</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt', 'alhamdulillah', 'selama', 'ini', 'kami', 'bisa', 'selalu', 'hadir', 'dan', 'membantu', 'di', 'setiap', 'bencana', 'mulai', 'dari', 'fase', 'tanggap', 'darurat', 'sampai', 're']</t>
+          <t>['rt', 'dalam', 'pertemuan', 'yang', 'diprakarsai', 'ketua', 'kadin', 'sulut', 'mas', 'rio', 'dondokambey', 'ini', 'hadir', 'juga', 'ketua', 'kadin', 'sulsel', 'sulteng', 'sulba']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'dalam', 'pertemuan', 'yang', 'diprakarsai', 'ketua', 'kamar, dagang, dan, industri', 'sulut', 'mas', 'rio', 'dondokambey', 'ini', 'hadir', 'juga', 'ketua', 'kamar, dagang, dan, industri', 'sulawesi, selatan', 'sulawesi, tengah', 'sulba']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'hadir', 'membantu', 'bencana', 'fase', 'tanggap', 'darurat', 're']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'hadir', 'bantu', 'bencana', 'fase', 'tanggap', 'darurat', 're']</t>
+          <t>['pertemuan', 'diprakarsai', 'ketua', 'kamar, dagang, dan, industri', 'sulut', 'mas', 'rio', 'dondokambey', 'hadir', 'ketua', 'kamar, dagang, dan, industri', 'sulawesi, selatan', 'sulawesi, tengah', 'sulba']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['temu', 'prakarsa', 'ketua', 'kamar dagang dan industri', 'sulut', 'mas', 'rio', 'dondokambey', 'hadir', 'ketua', 'kamar dagang dan industri', 'sulawesi selatan', 'sulawesi tengah', 'sulba']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23530</v>
+        <v>30774</v>
       </c>
       <c r="C33" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt kami di kelompok usaha bakrie kub baik melalui bakrie tanggap maupun tim di berbagai unit telah turut serta bersama</t>
+          <t>rt saat di manado sulut saya juga bersilaturahmi dengan temanteman kadin daerah khususnya dari wilayah timur indonesia</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'kami', 'di', 'kelompok', 'usaha', 'bakrie', 'kub', 'baik', 'melalui', 'bakrie', 'tanggap', 'maupun', 'tim', 'di', 'berbagai', 'unit', 'telah', 'turut', 'serta', 'bersama']</t>
+          <t>['rt', 'saat', 'di', 'manado', 'sulut', 'saya', 'juga', 'bersilaturahmi', 'dengan', 'temanteman', 'kadin', 'daerah', 'khususnya', 'dari', 'wilayah', 'timur', 'indonesia']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'saat', 'di', 'manado', 'sulut', 'saya', 'juga', 'bersilaturahmi', 'dengan', 'temanteman', 'kamar, dagang, dan, industri', 'daerah', 'khususnya', 'dari', 'wilayah', 'timur', 'indonesia']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['kelompok', 'usaha', 'bakrie', 'kub', 'bakrie', 'tanggap', 'tim', 'unit']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['kelompok', 'usaha', 'bakrie', 'kub', 'bakrie', 'tanggap', 'tim', 'unit']</t>
+          <t>['manado', 'sulut', 'bersilaturahmi', 'temanteman', 'kamar, dagang, dan, industri', 'daerah', 'wilayah', 'timur', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['manado', 'sulut', 'silaturahmi', 'temanteman', 'kamar dagang dan industri', 'daerah', 'wilayah', 'timur', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23531</v>
+        <v>30775</v>
       </c>
       <c r="C34" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt saya juga mengajak kita semua untuk berdoa agar korban yang meninggal mendapatkan tempat terbaik di sisi allah swt korb</t>
+          <t>rt kuncinya tidak hanya tumbuh tapi tumbuh bersama dan bagaimana kita naik kelas barengbareng inilah esensi dari perjuan</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'saya', 'juga', 'mengajak', 'kita', 'semua', 'untuk', 'berdoa', 'agar', 'korban', 'yang', 'meninggal', 'mendapatkan', 'tempat', 'terbaik', 'di', 'sisi', 'allah', 'swt', 'korb']</t>
+          <t>['rt', 'kuncinya', 'tidak', 'hanya', 'tumbuh', 'tapi', 'tumbuh', 'bersama', 'dan', 'bagaimana', 'kita', 'naik', 'kelas', 'barengbareng', 'inilah', 'esensi', 'dari', 'perjuan']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'kuncinya', 'tidak', 'hanya', 'tumbuh', 'tapi', 'tumbuh', 'bersama', 'dan', 'bagaimana', 'kita', 'naik', 'kelas', 'barengbareng', 'inilah', 'esensi', 'dari', 'perjuan']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['mengajak', 'berdoa', 'korban', 'meninggal', 'terbaik', 'sisi', 'allah', 'swt', 'korb']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['ajak', 'doa', 'korban', 'tinggal', 'baik', 'sisi', 'allah', 'swt', 'korb']</t>
+          <t>['kuncinya', 'tumbuh', 'tumbuh', 'kelas', 'barengbareng', 'esensi', 'perjuan']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['kunci', 'tumbuh', 'tumbuh', 'kelas', 'barengbareng', 'esensi', 'juan']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23532</v>
+        <v>30776</v>
       </c>
       <c r="C35" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt karenanya saya secara pribadi dan mewakili keluarga besar kelompok usaha bakrie ingin menyampaikan keprihatinan dan duk</t>
+          <t>rt insyaallah ke depan kadin akan memperhatikan dan memberdayakan daerah serta umkm jika ekonomi daerah maju maka ekonomi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'karenanya', 'saya', 'secara', 'pribadi', 'dan', 'mewakili', 'keluarga', 'besar', 'kelompok', 'usaha', 'bakrie', 'ingin', 'menyampaikan', 'keprihatinan', 'dan', 'duk']</t>
+          <t>['rt', 'insyaallah', 'ke', 'depan', 'kadin', 'akan', 'memperhatikan', 'dan', 'memberdayakan', 'daerah', 'serta', 'umkm', 'jika', 'ekonomi', 'daerah', 'maju', 'maka', 'ekonomi']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'insyaallah', 'ke', 'depan', 'kamar, dagang, dan, industri', 'akan', 'memperhatikan', 'dan', 'memberdayakan', 'daerah', 'serta', 'usaha, mikro, kecil, dan, menengah', 'jika', 'ekonomi', 'daerah', 'maju', 'maka', 'ekonomi']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['pribadi', 'mewakili', 'keluarga', 'kelompok', 'usaha', 'bakrie', 'keprihatinan', 'duk']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['pribadi', 'wakil', 'keluarga', 'kelompok', 'usaha', 'bakrie', 'prihatin', 'duk']</t>
+          <t>['insyaallah', 'kamar, dagang, dan, industri', 'memperhatikan', 'memberdayakan', 'daerah', 'usaha, mikro, kecil, dan, menengah', 'ekonomi', 'daerah', 'maju', 'ekonomi']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['insyaallah', 'kamar dagang dan industri', 'perhati', 'daya', 'daerah', 'usaha mikro kecil dan tengah', 'ekonomi', 'daerah', 'maju', 'ekonomi']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23533</v>
+        <v>30777</v>
       </c>
       <c r="C36" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt berbagai bencana ini merenggut tak sedikit korban jiwa dan harta benda serta meninggalkan nestapa bagi para korbannya</t>
+          <t>rt dukungan dan amanah ini harus dijalankan bagi saya ada yang lebih penting dari soal siapa yang menjadi ketua yaitu mau</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'berbagai', 'bencana', 'ini', 'merenggut', 'tak', 'sedikit', 'korban', 'jiwa', 'dan', 'harta', 'benda', 'serta', 'meninggalkan', 'nestapa', 'bagi', 'para', 'korbannya']</t>
+          <t>['rt', 'dukungan', 'dan', 'amanah', 'ini', 'harus', 'dijalankan', 'bagi', 'saya', 'ada', 'yang', 'lebih', 'penting', 'dari', 'soal', 'siapa', 'yang', 'menjadi', 'ketua', 'yaitu', 'mau']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'dukungan', 'dan', 'amanah', 'ini', 'harus', 'dijalankan', 'bagi', 'saya', 'ada', 'yang', 'lebih', 'penting', 'dari', 'soal', 'siapa', 'yang', 'menjadi', 'ketua', 'yaitu', 'mau']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['bencana', 'merenggut', 'korban', 'jiwa', 'harta', 'benda', 'meninggalkan', 'nestapa', 'korbannya']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['bencana', 'renggut', 'korban', 'jiwa', 'harta', 'benda', 'tinggal', 'nestapa', 'korban']</t>
+          <t>['dukungan', 'amanah', 'dijalankan', 'ketua']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['dukung', 'amanah', 'jalan', 'ketua']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23534</v>
+        <v>30778</v>
       </c>
       <c r="C37" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt ada bencana longsor di sumedang dan banjir bandang di puncak jawa barat banjir yang menggenangi sejumlah wilayah di kal</t>
+          <t xml:space="preserve">rt alhamdulillah dukungan dan masukan gkr mangkubumi menambah banyak amanah dan harapan kepada saya saya sudah tahun </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'ada', 'bencana', 'longsor', 'di', 'sumedang', 'dan', 'banjir', 'bandang', 'di', 'puncak', 'jawa', 'barat', 'banjir', 'yang', 'menggenangi', 'sejumlah', 'wilayah', 'di', 'kal']</t>
+          <t>['rt', 'alhamdulillah', 'dukungan', 'dan', 'masukan', 'gkr', 'mangkubumi', 'menambah', 'banyak', 'amanah', 'dan', 'harapan', 'kepada', 'saya', 'saya', 'sudah', 'tahun']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'alhamdulillah', 'dukungan', 'dan', 'masukan', 'gkr', 'mangkubumi', 'menambah', 'banyak', 'amanah', 'dan', 'harapan', 'kepada', 'saya', 'saya', 'sudah', 'tahun']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['bencana', 'longsor', 'sumedang', 'banjir', 'bandang', 'puncak', 'jawa', 'barat', 'banjir', 'menggenangi', 'wilayah', 'kal']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['bencana', 'longsor', 'sumedang', 'banjir', 'bandang', 'puncak', 'jawa', 'barat', 'banjir', 'genang', 'wilayah', 'kal']</t>
+          <t>['alhamdulillah', 'dukungan', 'masukan', 'gkr', 'mangkubumi', 'menambah', 'amanah', 'harapan']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'dukung', 'masuk', 'gkr', 'mangkubumi', 'tambah', 'amanah', 'harap']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23535</v>
+        <v>30779</v>
       </c>
       <c r="C38" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt di awal tahun ini di tengah pandemi yang belum teratasi secara tak terduga bencana hadir di berbagai daerah di indones</t>
+          <t>rt putri sulung sri sultan hamengkubuwono  ini juga titip harapan agar kadin membantu pengusaha di daerah bisa untuk lebih</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'di', 'awal', 'tahun', 'ini', 'di', 'tengah', 'pandemi', 'yang', 'belum', 'teratasi', 'secara', 'tak', 'terduga', 'bencana', 'hadir', 'di', 'berbagai', 'daerah', 'di', 'indones']</t>
+          <t>['rt', 'putri', 'sulung', 'sri', 'sultan', 'hamengkubuwono', 'ini', 'juga', 'titip', 'harapan', 'agar', 'kadin', 'membantu', 'pengusaha', 'di', 'daerah', 'bisa', 'untuk', 'lebih']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'putri', 'sulung', 'sri', 'sultan', 'hamengkubuwono', 'ini', 'juga', 'titip', 'harapan', 'agar', 'kamar, dagang, dan, industri', 'membantu', 'pengusaha', 'di', 'daerah', 'bisa', 'untuk', 'lebih']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['pandemi', 'teratasi', 'terduga', 'bencana', 'hadir', 'daerah', 'indones']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['pandemi', 'atas', 'duga', 'bencana', 'hadir', 'daerah', 'indones']</t>
+          <t>['putri', 'sulung', 'sri', 'sultan', 'hamengkubuwono', 'titip', 'harapan', 'kamar, dagang, dan, industri', 'membantu', 'pengusaha', 'daerah']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['putri', 'sulung', 'sri', 'sultan', 'hamengkubuwono', 'titip', 'harap', 'kamar dagang dan industri', 'bantu', 'usaha', 'daerah']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23536</v>
+        <v>30780</v>
       </c>
       <c r="C39" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>semoga beliau husnul khotimah dan mendapatkan tempat terbaik di sisi allah swt dan keluarga yang ditinggalkan diberikan kesabaran amin</t>
+          <t>rt dalam silaturahmi tersebut gkr mangkubumi menyatakan dukungannya kepada saya di indonesia disampaikan saya lam</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['semoga', 'beliau', 'husnul', 'khotimah', 'dan', 'mendapatkan', 'tempat', 'terbaik', 'di', 'sisi', 'allah', 'swt', 'dan', 'keluarga', 'yang', 'ditinggalkan', 'diberikan', 'kesabaran', 'amin']</t>
+          <t>['rt', 'dalam', 'silaturahmi', 'tersebut', 'gkr', 'mangkubumi', 'menyatakan', 'dukungannya', 'kepada', 'saya', 'di', 'indonesia', 'disampaikan', 'saya', 'lam']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'dalam', 'silaturahmi', 'tersebut', 'gkr', 'mangkubumi', 'menyatakan', 'dukungannya', 'kepada', 'saya', 'di', 'indonesia', 'disampaikan', 'saya', 'salam']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['semoga', 'beliau', 'husnul', 'khotimah', 'terbaik', 'sisi', 'allah', 'swt', 'keluarga', 'ditinggalkan', 'kesabaran', 'amin']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['moga', 'beliau', 'husnul', 'khotimah', 'baik', 'sisi', 'allah', 'swt', 'keluarga', 'tinggal', 'sabar', 'amin']</t>
+          <t>['silaturahmi', 'gkr', 'mangkubumi', 'dukungannya', 'indonesia', 'salam']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['silaturahmi', 'gkr', 'mangkubumi', 'dukung', 'indonesia', 'salam']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23537</v>
+        <v>30781</v>
       </c>
       <c r="C40" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>inalillahi wa innailaihi rojiun turut berduka cita yang mendalam atas wafatnya beliau adalah ul</t>
+          <t>rt dari kota pahlawan saya terbang ke kota pelajar saya ke yogya untuk bertemu sahabat saya gusti kanjeng ratu gkr man</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['inalillahi', 'wa', 'innailaihi', 'rojiun', 'turut', 'berduka', 'cita', 'yang', 'mendalam', 'atas', 'wafatnya', 'beliau', 'adalah', 'ul']</t>
+          <t>['rt', 'dari', 'kota', 'pahlawan', 'saya', 'terbang', 'ke', 'kota', 'pelajar', 'saya', 'ke', 'yogya', 'untuk', 'bertemu', 'sahabat', 'saya', 'gusti', 'kanjeng', 'ratu', 'gkr', 'man']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'dari', 'kota', 'pahlawan', 'saya', 'terbang', 'ke', 'kota', 'pelajar', 'saya', 'ke', 'yogyakarta', 'untuk', 'bertemu', 'sahabat', 'saya', 'gusti', 'kanjeng', 'ratu', 'gkr', 'man']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['inalillahi', 'wa', 'innailaihi', 'rojiun', 'berduka', 'cita', 'mendalam', 'wafatnya', 'beliau', 'ul']</t>
+          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['inalillahi', 'wa', 'innailaihi', 'rojiun', 'duka', 'cita', 'dalam', 'wafat', 'beliau', 'ul']</t>
+          <t>['kota', 'pahlawan', 'terbang', 'kota', 'pelajar', 'yogyakarta', 'bertemu', 'sahabat', 'gusti', 'kanjeng', 'ratu', 'gkr', 'man']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['kota', 'pahlawan', 'terbang', 'kota', 'ajar', 'yogyakarta', 'temu', 'sahabat', 'gusti', 'kanjeng', 'ratu', 'gkr', 'man']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23538</v>
+        <v>30782</v>
       </c>
       <c r="C41" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>atas musibah kecelakaan pesawat sriwijaya air sj kemarin saya turut berdukacita yang mendalam semoga korban</t>
+          <t>rt insyaallah dengan bersamasama bergotong royong kita bisa melakukan itu semua sekali lagi maturnuwun untuk mas kukrit</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['atas', 'musibah', 'kecelakaan', 'pesawat', 'sriwijaya', 'air', 'sj', 'kemarin', 'saya', 'turut', 'berdukacita', 'yang', 'mendalam', 'semoga', 'korban']</t>
+          <t>['rt', 'insyaallah', 'dengan', 'bersamasama', 'bergotong', 'royong', 'kita', 'bisa', 'melakukan', 'itu', 'semua', 'sekali', 'lagi', 'maturnuwun', 'untuk', 'mas', 'kukrit']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'insyaallah', 'dengan', 'bersamasama', 'bergotong', 'royong', 'kita', 'bisa', 'melakukan', 'itu', 'semua', 'sekali', 'lagi', 'maturnuwun', 'untuk', 'mas', 'kukrit']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['musibah', 'kecelakaan', 'pesawat', 'sriwijaya', 'air', 'sj', 'kemarin', 'berdukacita', 'mendalam', 'semoga', 'korban']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['musibah', 'celaka', 'pesawat', 'sriwijaya', 'air', 'sj', 'kemarin', 'dukacita', 'dalam', 'moga', 'korban']</t>
+          <t>['insyaallah', 'bersamasama', 'bergotong', 'royong', 'maturnuwun', 'mas', 'kukrit']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['insyaallah', 'bersamasama', 'gotong', 'royong', 'maturnuwun', 'mas', 'kukrit']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23539</v>
+        <v>30783</v>
       </c>
       <c r="C42" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>selamat tahun baru semoga di tahun ini lebih baik dari tahun sebelumnya semoga pandemi dan krisis ekonomi</t>
+          <t>rt saya ingin mendorong pengusaha daerah seperti temanteman di kadin jawa tengah untuk bisa naik kelas kita dorong yang</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['selamat', 'tahun', 'baru', 'semoga', 'di', 'tahun', 'ini', 'lebih', 'baik', 'dari', 'tahun', 'sebelumnya', 'semoga', 'pandemi', 'dan', 'krisis', 'ekonomi']</t>
+          <t>['rt', 'saya', 'ingin', 'mendorong', 'pengusaha', 'daerah', 'seperti', 'temanteman', 'di', 'kadin', 'jawa', 'tengah', 'untuk', 'bisa', 'naik', 'kelas', 'kita', 'dorong', 'yang']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'saya', 'ingin', 'mendorong', 'pengusaha', 'daerah', 'seperti', 'temanteman', 'di', 'kamar, dagang, dan, industri', 'jawa', 'tengah', 'untuk', 'bisa', 'naik', 'kelas', 'kita', 'dorong', 'yang']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['selamat', 'semoga', 'semoga', 'pandemi', 'krisis', 'ekonomi']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['selamat', 'moga', 'moga', 'pandemi', 'krisis', 'ekonomi']</t>
+          <t>['mendorong', 'pengusaha', 'daerah', 'temanteman', 'kamar, dagang, dan, industri', 'jawa', 'kelas', 'dorong']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['dorong', 'usaha', 'daerah', 'temanteman', 'kamar dagang dan industri', 'jawa', 'kelas', 'dorong']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23540</v>
+        <v>30784</v>
       </c>
       <c r="C43" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>selamat natal untuk saudarasaudaraku umat kristiani semoga kasih dan damai senantiasa menyertai kita semua</t>
+          <t>rt saya berterima kasih atas dukungan temanteman jateng selama mengabdi di kadin saya memang selalu berusaha untuk mem</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['selamat', 'natal', 'untuk', 'saudarasaudaraku', 'umat', 'kristiani', 'semoga', 'kasih', 'dan', 'damai', 'senantiasa', 'menyertai', 'kita', 'semua']</t>
+          <t>['rt', 'saya', 'berterima', 'kasih', 'atas', 'dukungan', 'temanteman', 'jateng', 'selama', 'mengabdi', 'di', 'kadin', 'saya', 'memang', 'selalu', 'berusaha', 'untuk', 'mem']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'saya', 'berterima', 'kasih', 'atas', 'dukungan', 'temanteman', 'jawa, tengah', 'selama', 'mengabdi', 'di', 'kamar, dagang, dan, industri', 'saya', 'memang', 'selalu', 'berusaha', 'untuk', 'mem']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['selamat', 'natal', 'saudarasaudaraku', 'umat', 'kristiani', 'semoga', 'kasih', 'damai', 'senantiasa', 'menyertai']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['selamat', 'natal', 'saudarasaudaraku', 'umat', 'kristiani', 'moga', 'kasih', 'damai', 'senantiasa', 'serta']</t>
+          <t>['berterima', 'kasih', 'dukungan', 'temanteman', 'jawa, tengah', 'mengabdi', 'kamar, dagang, dan, industri', 'berusaha', 'mem']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'dukung', 'temanteman', 'jawa tengah', 'abdi', 'kamar dagang dan industri', 'usaha', 'mem']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23541</v>
+        <v>30785</v>
       </c>
       <c r="C44" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt cerita kembalinya pendiri opm nicholas jouwe ke pangkuan ibu pertiwi</t>
+          <t xml:space="preserve">rt kata mas kukrit kadin pusat dan daerah harus solid untuk merespon masalah dunia usaha dan menghadirkan solusinya saya </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'cerita', 'kembalinya', 'pendiri', 'opm', 'nicholas', 'jouwe', 'ke', 'pangkuan', 'ibu', 'pertiwi']</t>
+          <t>['rt', 'kata', 'mas', 'kukrit', 'kadin', 'pusat', 'dan', 'daerah', 'harus', 'solid', 'untuk', 'merespon', 'masalah', 'dunia', 'usaha', 'dan', 'menghadirkan', 'solusinya', 'saya']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'kata', 'mas', 'kukrit', 'kamar, dagang, dan, industri', 'pusat', 'dan', 'daerah', 'harus', 'solid', 'untuk', 'menjawab', 'masalah', 'dunia', 'usaha', 'dan', 'menghadirkan', 'solusinya', 'saya']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['cerita', 'kembalinya', 'pendiri', 'opm', 'nicholas', 'jouwe', 'pangkuan', 'pertiwi']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['cerita', 'kembali', 'diri', 'opm', 'nicholas', 'jouwe', 'pangku', 'pertiwi']</t>
+          <t>['mas', 'kukrit', 'kamar, dagang, dan, industri', 'pusat', 'daerah', 'solid', 'dunia', 'usaha', 'menghadirkan', 'solusinya']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['mas', 'kukrit', 'kamar dagang dan industri', 'pusat', 'daerah', 'solid', 'dunia', 'usaha', 'hadir', 'solusi']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23542</v>
+        <v>30786</v>
       </c>
       <c r="C45" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">saat pandemi covid seperti sekarang ini olahraga amat penting kita bisa melawan covid dengan berolahraga </t>
+          <t>rt temanteman kadin jateng mendukung dan mendorong saya untuk jadi ketua umum indonesia alasannya karena menurut</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['saat', 'pandemi', 'covid', 'seperti', 'sekarang', 'ini', 'olahraga', 'amat', 'penting', 'kita', 'bisa', 'melawan', 'covid', 'dengan', 'berolahraga']</t>
+          <t>['rt', 'temanteman', 'kadin', 'jateng', 'mendukung', 'dan', 'mendorong', 'saya', 'untuk', 'jadi', 'ketua', 'umum', 'indonesia', 'alasannya', 'karena', 'menurut']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'temanteman', 'kamar, dagang, dan, industri', 'jawa, tengah', 'mendukung', 'dan', 'mendorong', 'saya', 'untuk', 'jadi', 'ketua', 'umum', 'indonesia', 'alasannya', 'karena', 'menurut']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['pandemi', 'covid', 'olahraga', 'melawan', 'covid', 'berolahraga']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['pandemi', 'covid', 'olahraga', 'lawan', 'covid', 'olahraga']</t>
+          <t>['temanteman', 'kamar, dagang, dan, industri', 'jawa, tengah', 'mendukung', 'mendorong', 'ketua', 'indonesia', 'alasannya']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['temanteman', 'kamar dagang dan industri', 'jawa tengah', 'dukung', 'dorong', 'ketua', 'indonesia', 'alas']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23543</v>
+        <v>30787</v>
       </c>
       <c r="C46" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>pagi tadi main tenis bareng ditha dan bagi saya tiada hari tanpa olahraga karena olahraga selain bis</t>
+          <t>rt sementara silaturahmi saya dengan temanteman kadin jawa tengah jateng digelar di kediaman ketua umum kadin jateng mas</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['pagi', 'tadi', 'main', 'tenis', 'bareng', 'ditha', 'dan', 'bagi', 'saya', 'tiada', 'hari', 'tanpa', 'olahraga', 'karena', 'olahraga', 'selain', 'bis']</t>
+          <t>['rt', 'sementara', 'silaturahmi', 'saya', 'dengan', 'temanteman', 'kadin', 'jawa', 'tengah', 'jateng', 'digelar', 'di', 'kediaman', 'ketua', 'umum', 'kadin', 'jateng', 'mas']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'sementara', 'silaturahmi', 'saya', 'dengan', 'temanteman', 'kamar, dagang, dan, industri', 'jawa', 'tengah', 'jawa, tengah', 'digelar', 'di', 'kediaman', 'ketua', 'umum', 'kamar, dagang, dan, industri', 'jawa, tengah', 'mas']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['pagi', 'main', 'tenis', 'bareng', 'ditha', 'tiada', 'olahraga', 'olahraga', 'bis']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['pagi', 'main', 'tenis', 'bareng', 'ditha', 'tiada', 'olahraga', 'olahraga', 'bis']</t>
+          <t>['silaturahmi', 'temanteman', 'kamar, dagang, dan, industri', 'jawa', 'jawa, tengah', 'digelar', 'kediaman', 'ketua', 'kamar, dagang, dan, industri', 'jawa, tengah', 'mas']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['silaturahmi', 'temanteman', 'kamar dagang dan industri', 'jawa', 'jawa tengah', 'gelar', 'diam', 'ketua', 'kamar dagang dan industri', 'jawa tengah', 'mas']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23544</v>
+        <v>30788</v>
       </c>
       <c r="C47" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>terimakasih kepada pengurus siwo pwi pusat dan daerah yang sudah mengapresiasi apa yang saya lakukan dalam memajuka</t>
+          <t>rt beliau juga mendukung saya yang dinilai pro daerah dan umkm maturnuwun atas sambutan baik dan dukungannya mas ganjar</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['terimakasih', 'kepada', 'pengurus', 'siwo', 'pwi', 'pusat', 'dan', 'daerah', 'yang', 'sudah', 'mengapresiasi', 'apa', 'yang', 'saya', 'lakukan', 'dalam', 'memajuka']</t>
+          <t>['rt', 'beliau', 'juga', 'mendukung', 'saya', 'yang', 'dinilai', 'pro', 'daerah', 'dan', 'umkm', 'maturnuwun', 'atas', 'sambutan', 'baik', 'dan', 'dukungannya', 'mas', 'ganjar']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'beliau', 'juga', 'mendukung', 'saya', 'yang', 'dinilai', 'pro', 'daerah', 'dan', 'usaha, mikro, kecil, dan, menengah', 'maturnuwun', 'atas', 'sambutan', 'baik', 'dan', 'dukungannya', 'mas', 'ganjar']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['terimakasih', 'pengurus', 'siwo', 'pwi', 'pusat', 'daerah', 'mengapresiasi', 'lakukan', 'memajuka']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['terimakasih', 'urus', 'siwo', 'pwi', 'pusat', 'daerah', 'apresiasi', 'laku', 'memajuka']</t>
+          <t>['beliau', 'mendukung', 'dinilai', 'pro', 'daerah', 'usaha, mikro, kecil, dan, menengah', 'maturnuwun', 'sambutan', 'dukungannya', 'mas', 'ganjar']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['beliau', 'dukung', 'nilai', 'pro', 'daerah', 'usaha mikro kecil dan tengah', 'maturnuwun', 'sambut', 'dukung', 'mas', 'ganjar']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23545</v>
+        <v>30789</v>
       </c>
       <c r="C48" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>dalam kesempatan itu saya menyampaikan bahwa saya insyaallah akan hadir pada malam anugerah olahraga siwo pwi</t>
+          <t>rt saya diterima mas ganjar yang keren sekali dengan baju jawa kami sempat berdiskusi dengan dari soal indonesia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['dalam', 'kesempatan', 'itu', 'saya', 'menyampaikan', 'bahwa', 'saya', 'insyaallah', 'akan', 'hadir', 'pada', 'malam', 'anugerah', 'olahraga', 'siwo', 'pwi']</t>
+          <t>['rt', 'saya', 'diterima', 'mas', 'ganjar', 'yang', 'keren', 'sekali', 'dengan', 'baju', 'jawa', 'kami', 'sempat', 'berdiskusi', 'dengan', 'dari', 'soal', 'indonesia']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'saya', 'diterima', 'mas', 'ganjar', 'yang', 'keren', 'sekali', 'dengan', 'baju', 'jawa', 'kami', 'sempat', 'berdiskusi', 'dengan', 'dari', 'soal', 'indonesia']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['kesempatan', 'insyaallah', 'hadir', 'malam', 'anugerah', 'olahraga', 'siwo', 'pwi']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['sempat', 'insyaallah', 'hadir', 'malam', 'anugerah', 'olahraga', 'siwo', 'pwi']</t>
+          <t>['diterima', 'mas', 'ganjar', 'keren', 'baju', 'jawa', 'berdiskusi', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['terima', 'mas', 'ganjar', 'keren', 'baju', 'jawa', 'diskus', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23546</v>
+        <v>30790</v>
       </c>
       <c r="C49" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>sungguh saya senang dan gembira atas apresiasi tersebut meski terus terang saja saya selama ini tak pernah memiki</t>
+          <t>rt dari medan saya melanjutkan perjalanan ke semarang di semarang tak lupa saya kulonuwun kepada gubernur jateng</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['sungguh', 'saya', 'senang', 'dan', 'gembira', 'atas', 'apresiasi', 'tersebut', 'meski', 'terus', 'terang', 'saja', 'saya', 'selama', 'ini', 'tak', 'pernah', 'memiki']</t>
+          <t>['rt', 'dari', 'medan', 'saya', 'melanjutkan', 'perjalanan', 'ke', 'semarang', 'di', 'semarang', 'tak', 'lupa', 'saya', 'kulonuwun', 'kepada', 'gubernur', 'jateng']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'dari', 'medan', 'saya', 'melanjutkan', 'perjalanan', 'ke', 'semarang', 'di', 'semarang', 'tak', 'lupa', 'saya', 'kulonuwun', 'kepada', 'gubernur', 'jawa, tengah']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['sungguh', 'senang', 'gembira', 'apresiasi', 'terang', 'memiki']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['sungguh', 'senang', 'gembira', 'apresiasi', 'terang', 'mik']</t>
+          <t>['medan', 'melanjutkan', 'perjalanan', 'semarang', 'semarang', 'lupa', 'kulonuwun', 'gubernur', 'jawa, tengah']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['medan', 'lanjut', 'jalan', 'semarang', 'semarang', 'lupa', 'kulonuwun', 'gubernur', 'jawa tengah']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23547</v>
+        <v>30791</v>
       </c>
       <c r="C50" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>keduanya datang menyampaikan kabar bahwa saya terpilih untuk menerima penghargaan lifetime achievement pembina olah</t>
+          <t>saya bersama ketua umum partai golkar berbagai periode tadi malam menghadiri acara tasyakuran peresmian gedung bar</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['keduanya', 'datang', 'menyampaikan', 'kabar', 'bahwa', 'saya', 'terpilih', 'untuk', 'menerima', 'penghargaan', 'lifetime', 'achievement', 'pembina', 'olah']</t>
+          <t>['saya', 'bersama', 'ketua', 'umum', 'partai', 'golkar', 'berbagai', 'periode', 'tadi', 'malam', 'menghadiri', 'acara', 'tasyakuran', 'peresmian', 'gedung', 'bar']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['saya', 'bersama', 'ketua', 'umum', 'partai', 'golkar', 'berbagai', 'periode', 'tadi', 'malam', 'menghadiri', 'acara', 'tasyakuran', 'peresmian', 'gedung', 'bar']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['kabar', 'terpilih', 'menerima', 'penghargaan', 'lifetime', 'achievement', 'pembina', 'olah']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['kabar', 'pilih', 'terima', 'harga', 'lifetime', 'achievement', 'bina', 'olah']</t>
+          <t>['ketua', 'partai', 'golkar', 'periode', 'malam', 'menghadiri', 'acara', 'tasyakuran', 'peresmian', 'gedung', 'bar']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['ketua', 'partai', 'golkar', 'periode', 'malam', 'hadir', 'acara', 'tasyakur', 'resmi', 'gedung', 'bar']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23548</v>
+        <v>30792</v>
       </c>
       <c r="C51" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>keduanya adalah wartawan olahraga yang pada saat saya masih aktif mengurus pb pbsi dan por pelita jaya seringkali</t>
+          <t xml:space="preserve">rt terima kasih pak edy dan mas bobby atas waktu dan diskusinya terima kasih juga rekanrakan kadin sumut yang menemani </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['keduanya', 'adalah', 'wartawan', 'olahraga', 'yang', 'pada', 'saat', 'saya', 'masih', 'aktif', 'mengurus', 'pb', 'pbsi', 'dan', 'por', 'pelita', 'jaya', 'seringkali']</t>
+          <t>['rt', 'terima', 'kasih', 'pak', 'edy', 'dan', 'mas', 'bobby', 'atas', 'waktu', 'dan', 'diskusinya', 'terima', 'kasih', 'juga', 'rekanrakan', 'kadin', 'sumut', 'yang', 'menemani']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'terima', 'kasih', 'pak', 'edy', 'dan', 'mas', 'bobby', 'atas', 'waktu', 'dan', 'diskusinya', 'terima', 'kasih', 'juga', 'rekanrakan', 'kamar, dagang, dan, industri', 'sumatra, utara', 'yang', 'menemani']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['wartawan', 'olahraga', 'aktif', 'mengurus', 'pb', 'pbsi', 'por', 'pelita', 'jaya', 'seringkali']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['wartawan', 'olahraga', 'aktif', 'urus', 'pb', 'pbsi', 'por', 'pelita', 'jaya', 'seringkali']</t>
+          <t>['terima', 'kasih', 'edy', 'mas', 'bobby', 'diskusinya', 'terima', 'kasih', 'rekanrakan', 'kamar, dagang, dan, industri', 'sumatra, utara', 'menemani']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'edy', 'mas', 'bobby', 'diskusi', 'terima', 'kasih', 'rekanrakan', 'kamar dagang dan industri', 'sumatra utara', 'tani']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23549</v>
+        <v>30793</v>
       </c>
       <c r="C52" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>saya menerima ketua seksi wartawan olahraga persatuan wartawan indonesia siwo pwi pusat aagwa ariwangsa dan penas</t>
+          <t>rt bagi saya pengabdian di kadin bukan hal yang baru saya sudah tahun mengabdi di organisasi ini meneruskan legacy kel</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['saya', 'menerima', 'ketua', 'seksi', 'wartawan', 'olahraga', 'persatuan', 'wartawan', 'indonesia', 'siwo', 'pwi', 'pusat', 'aagwa', 'ariwangsa', 'dan', 'penas']</t>
+          <t>['rt', 'bagi', 'saya', 'pengabdian', 'di', 'kadin', 'bukan', 'hal', 'yang', 'baru', 'saya', 'sudah', 'tahun', 'mengabdi', 'di', 'organisasi', 'ini', 'meneruskan', 'legacy', 'kel']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'bagi', 'saya', 'pengabdian', 'di', 'kamar, dagang, dan, industri', 'bukan', 'hal', 'yang', 'baru', 'saya', 'sudah', 'tahun', 'mengabdi', 'di', 'organisasi', 'ini', 'meneruskan', 'legacy', 'keluarga']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['menerima', 'ketua', 'seksi', 'wartawan', 'olahraga', 'persatuan', 'wartawan', 'indonesia', 'siwo', 'pwi', 'pusat', 'aagwa', 'ariwangsa', 'penas']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['terima', 'ketua', 'seksi', 'wartawan', 'olahraga', 'satu', 'wartawan', 'indonesia', 'siwo', 'pwi', 'pusat', 'aagwa', 'ariwangsa', 'nas']</t>
+          <t>['pengabdian', 'kamar, dagang, dan, industri', 'mengabdi', 'organisasi', 'meneruskan', 'legacy', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['abdi', 'kamar dagang dan industri', 'abdi', 'organisasi', 'terus', 'legacy', 'keluarga']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23550</v>
+        <v>30794</v>
       </c>
       <c r="C53" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt mma selangkapnya</t>
+          <t>rt saya ucapkan terima kasih atas dukungannya dukungan ini adalah kehormatan bagi saya hasilnya nanti kita serahkan ke for</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'mma', 'selangkapnya']</t>
+          <t>['rt', 'saya', 'ucapkan', 'terima', 'kasih', 'atas', 'dukungannya', 'dukungan', 'ini', 'adalah', 'kehormatan', 'bagi', 'saya', 'hasilnya', 'nanti', 'kita', 'serahkan', 'ke', 'for']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'saya', 'ucapkan', 'terima', 'kasih', 'atas', 'dukungannya', 'dukungan', 'ini', 'adalah', 'kehormatan', 'bagi', 'saya', 'hasilnya', 'nanti', 'kita', 'serahkan', 'ke', 'for']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['mma', 'selangkapnya']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['mma', 'langkap']</t>
+          <t>['ucapkan', 'terima', 'kasih', 'dukungannya', 'dukungan', 'kehormatan', 'hasilnya', 'serahkan', 'for']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['ucap', 'terima', 'kasih', 'dukung', 'dukung', 'hormat', 'hasil', 'serah', 'for']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23551</v>
+        <v>30795</v>
       </c>
       <c r="C54" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt mma ardi mengatakan kerja sama ini sesuai dengan misi kobi yakni menciptakan panggung olahraga beladiri mma secara rutin dengan</t>
+          <t>rt uniknya kami ini samasama berdarah nasution nenek saya roosniah bermarga nasution juga jadi temanteman medansumut</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'mma', 'ardi', 'mengatakan', 'kerja', 'sama', 'ini', 'sesuai', 'dengan', 'misi', 'kobi', 'yakni', 'menciptakan', 'panggung', 'olahraga', 'beladiri', 'mma', 'secara', 'rutin', 'dengan']</t>
+          <t>['rt', 'uniknya', 'kami', 'ini', 'samasama', 'berdarah', 'nasution', 'nenek', 'saya', 'roosniah', 'bermarga', 'nasution', 'juga', 'jadi', 'temanteman', 'medansumut']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'uniknya', 'kami', 'ini', 'samasama', 'berdarah', 'nasution', 'nenek', 'saya', 'roosniah', 'bermarga', 'nasution', 'juga', 'jadi', 'temanteman', 'medansumut']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['mma', 'ardi', 'kerja', 'sesuai', 'misi', 'kobi', 'menciptakan', 'panggung', 'olahraga', 'beladiri', 'mma', 'rutin']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['mma', 'ardi', 'kerja', 'sesuai', 'misi', 'kobi', 'cipta', 'panggung', 'olahraga', 'beladiri', 'mma', 'rutin']</t>
+          <t>['uniknya', 'samasama', 'berdarah', 'nasution', 'nenek', 'roosniah', 'bermarga', 'nasution', 'temanteman', 'medansumut']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['unik', 'samasama', 'darah', 'nasution', 'nenek', 'roosniah', 'marga', 'nasution', 'temanteman', 'medansumut']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23552</v>
+        <v>30796</v>
       </c>
       <c r="C55" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt mma ketua umum kobi menyambut baik kerja sama antara promotor seni bela diri campuran indonesia one pride mma opmma</t>
+          <t>rt selain dengan pak gubernur saya juga bersilaturahmi dengan walikota medan bobby nasution banyak yang kami diskusikan</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'mma', 'ketua', 'umum', 'kobi', 'menyambut', 'baik', 'kerja', 'sama', 'antara', 'promotor', 'seni', 'bela', 'diri', 'campuran', 'indonesia', 'one', 'pride', 'mma', 'opmma']</t>
+          <t>['rt', 'selain', 'dengan', 'pak', 'gubernur', 'saya', 'juga', 'bersilaturahmi', 'dengan', 'walikota', 'medan', 'bobby', 'nasution', 'banyak', 'yang', 'kami', 'diskusikan']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'selain', 'dengan', 'pak', 'gubernur', 'saya', 'juga', 'bersilaturahmi', 'dengan', 'wali, kota', 'medan', 'bobby', 'nasution', 'banyak', 'yang', 'kami', 'diskusikan']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['mma', 'ketua', 'kobi', 'menyambut', 'kerja', 'promotor', 'seni', 'bela', 'campuran', 'indonesia', 'one', 'pride', 'mma', 'opmma']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['mma', 'ketua', 'kobi', 'sambut', 'kerja', 'promotor', 'seni', 'bela', 'campur', 'indonesia', 'one', 'pride', 'mma', 'opmma']</t>
+          <t>['gubernur', 'bersilaturahmi', 'wali, kota', 'medan', 'bobby', 'nasution', 'diskusikan']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['gubernur', 'silaturahmi', 'wali kota', 'medan', 'bobby', 'nasution', 'diskusi']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23553</v>
+        <v>30797</v>
       </c>
       <c r="C56" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>merayakan ulang tahun bersama keluarga dan temanteman dekat saya terima kasih temanteman atas perhatian dan doa</t>
+          <t>rt beliau tadi juga mendoakan saya sehat dan sukses selalu</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['merayakan', 'ulang', 'tahun', 'bersama', 'keluarga', 'dan', 'temanteman', 'dekat', 'saya', 'terima', 'kasih', 'temanteman', 'atas', 'perhatian', 'dan', 'doa']</t>
+          <t>['rt', 'beliau', 'tadi', 'juga', 'mendoakan', 'saya', 'sehat', 'dan', 'sukses', 'selalu']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'beliau', 'tadi', 'juga', 'mendoakan', 'saya', 'sehat', 'dan', 'sukses', 'selalu']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['merayakan', 'ulang', 'keluarga', 'temanteman', 'terima', 'kasih', 'temanteman', 'perhatian', 'doa']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['raya', 'ulang', 'keluarga', 'temanteman', 'terima', 'kasih', 'temanteman', 'perhati', 'doa']</t>
+          <t>['beliau', 'mendoakan', 'sehat', 'sukses']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['beliau', 'doa', 'sehat', 'sukses']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23554</v>
+        <v>30798</v>
       </c>
       <c r="C57" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt la famiglia celebrating fathers birthday with fulfilling food and competitive tennis hbd pa ht</t>
+          <t xml:space="preserve">rt dalam silaturahmi ini saya ditemani ketua umum kadin sumut ivan batubara dan rekanrekan kadin lainnya banyak sekali </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'la', 'famiglia', 'celebrating', 'fathers', 'birthday', 'with', 'fulfilling', 'food', 'and', 'competitive', 'tennis', 'hbd', 'pa', 'ht']</t>
+          <t>['rt', 'dalam', 'silaturahmi', 'ini', 'saya', 'ditemani', 'ketua', 'umum', 'kadin', 'sumut', 'ivan', 'batubara', 'dan', 'rekanrekan', 'kadin', 'lainnya', 'banyak', 'sekali']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'dalam', 'silaturahmi', 'ini', 'saya', 'ditemani', 'ketua', 'umum', 'kamar, dagang, dan, industri', 'sumatra, utara', 'ivan', 'batubara', 'dan', 'rekanrekan', 'kamar, dagang, dan, industri', 'lainnya', 'banyak', 'sekali']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['la', 'famiglia', 'celebrating', 'fathers', 'birthday', 'with', 'fulfilling', 'food', 'and', 'competitive', 'tennis', 'hbd', 'pa', 'ht']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['la', 'famiglia', 'celebrating', 'fathers', 'birthday', 'with', 'fulfilling', 'food', 'and', 'competitive', 'tennis', 'hbd', 'pa', 'ht']</t>
+          <t>['silaturahmi', 'ditemani', 'ketua', 'kamar, dagang, dan, industri', 'sumatra, utara', 'ivan', 'batubara', 'rekanrekan', 'kamar, dagang, dan, industri']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['silaturahmi', 'tani', 'ketua', 'kamar dagang dan industri', 'sumatra utara', 'ivan', 'batubara', 'rekanrekan', 'kamar dagang dan industri']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23555</v>
+        <v>30799</v>
       </c>
       <c r="C58" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>terima kasih untuk anakanak saya dan keluarga yang menemani saya di hari bahagia ini juga terima kasih kepada sa</t>
+          <t xml:space="preserve">rt kemarin saya terbang ke kota medan sumatera utara dalam kunjungan saya ke medan saya sempat bersilaturahmi dengan </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'untuk', 'anakanak', 'saya', 'dan', 'keluarga', 'yang', 'menemani', 'saya', 'di', 'hari', 'bahagia', 'ini', 'juga', 'terima', 'kasih', 'kepada', 'sa']</t>
+          <t>['rt', 'kemarin', 'saya', 'terbang', 'ke', 'kota', 'medan', 'sumatera', 'utara', 'dalam', 'kunjungan', 'saya', 'ke', 'medan', 'saya', 'sempat', 'bersilaturahmi', 'dengan']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'kemarin', 'saya', 'terbang', 'ke', 'kota', 'medan', 'sumatra', 'utara', 'dalam', 'kunjungan', 'saya', 'ke', 'medan', 'saya', 'sempat', 'bersilaturahmi', 'dengan']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'anakanak', 'keluarga', 'menemani', 'bahagia', 'terima', 'kasih', 'sa']</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'anakanak', 'keluarga', 'tani', 'bahagia', 'terima', 'kasih', 'sa']</t>
+          <t>['kemarin', 'terbang', 'kota', 'medan', 'sumatra', 'utara', 'kunjungan', 'medan', 'bersilaturahmi']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['kemarin', 'terbang', 'kota', 'medan', 'sumatra', 'utara', 'kunjung', 'medan', 'silaturahmi']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23556</v>
+        <v>30800</v>
       </c>
       <c r="C59" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>merayakan ulang tahun dengan main tenis bersama anakanak saya satu tim dengan putri saya ditha melawan dua putra</t>
+          <t>rt sebagai bentuk kepedulian terhadap karyawan yang terdampak banjir bakrie tanggap memberikan bantuan berupa paket</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['merayakan', 'ulang', 'tahun', 'dengan', 'main', 'tenis', 'bersama', 'anakanak', 'saya', 'satu', 'tim', 'dengan', 'putri', 'saya', 'ditha', 'melawan', 'dua', 'putra']</t>
+          <t>['rt', 'sebagai', 'bentuk', 'kepedulian', 'terhadap', 'karyawan', 'yang', 'terdampak', 'banjir', 'bakrie', 'tanggap', 'memberikan', 'bantuan', 'berupa', 'paket']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'sebagai', 'bentuk', 'kepedulian', 'terhadap', 'karyawan', 'yang', 'terdampak', 'banjir', 'bakrie', 'tanggap', 'memberikan', 'bantuan', 'berupa', 'paket']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['merayakan', 'ulang', 'main', 'tenis', 'anakanak', 'tim', 'putri', 'ditha', 'melawan', 'putra']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['raya', 'ulang', 'main', 'tenis', 'anakanak', 'tim', 'putri', 'ditha', 'lawan', 'putra']</t>
+          <t>['bentuk', 'kepedulian', 'karyawan', 'terdampak', 'banjir', 'bakrie', 'tanggap', 'bantuan', 'paket']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['bentuk', 'peduli', 'karyawan', 'dampak', 'banjir', 'bakrie', 'tanggap', 'bantu', 'paket']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23557</v>
+        <v>30801</v>
       </c>
       <c r="C60" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rt selamat dan terima kasih rekanrakan di bumi arutmin dan kpc terus pertahankan upayaupaya baik yang ada dan tingkatka</t>
+          <t>rt tidak kurang dari karyawan perusahaan bakrie yang rumahnya terendam banjir</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'dan', 'terima', 'kasih', 'rekanrakan', 'di', 'bumi', 'arutmin', 'dan', 'kpc', 'terus', 'pertahankan', 'upayaupaya', 'baik', 'yang', 'ada', 'dan', 'tingkatka']</t>
+          <t>['rt', 'tidak', 'kurang', 'dari', 'karyawan', 'perusahaan', 'bakrie', 'yang', 'rumahnya', 'terendam', 'banjir']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'tidak', 'kurang', 'dari', 'karyawan', 'perusahaan', 'bakrie', 'yang', 'rumahnya', 'terendam', 'banjir']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['selamat', 'terima', 'kasih', 'rekanrakan', 'bumi', 'arutmin', 'kpc', 'pertahankan', 'upayaupaya', 'tingkatka']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['selamat', 'terima', 'kasih', 'rekanrakan', 'bumi', 'arutmin', 'kpc', 'tahan', 'upayaupaya', 'tingkatka']</t>
+          <t>['karyawan', 'perusahaan', 'bakrie', 'rumahnya', 'terendam', 'banjir']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['karyawan', 'usaha', 'bakrie', 'rumah', 'rendam', 'banjir']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23558</v>
+        <v>30802</v>
       </c>
       <c r="C61" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>rt penghargaan diberikan oleh foundation for international human rights reporting standard fihrrst pada atas stud</t>
+          <t>rt bakrie tanggap salurkan paket sembako akibat hujan lebat dengan intensitas tinggi yang melanda wilayah jabodetab</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['rt', 'penghargaan', 'diberikan', 'oleh', 'foundation', 'for', 'international', 'human', 'rights', 'reporting', 'standard', 'fihrrst', 'pada', 'atas', 'stud']</t>
+          <t>['rt', 'bakrie', 'tanggap', 'salurkan', 'paket', 'sembako', 'akibat', 'hujan', 'lebat', 'dengan', 'intensitas', 'tinggi', 'yang', 'melanda', 'wilayah', 'jabodetab']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'bakrie', 'tanggap', 'salurkan', 'paket', 'sembako', 'akibat', 'hujan', 'lebat', 'dengan', 'intensitas', 'tinggi', 'yang', 'melanda', 'wilayah', 'jabodetab']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['penghargaan', 'foundation', 'for', 'international', 'human', 'rights', 'reporting', 'standard', 'fihrrst', 'stud']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['harga', 'foundation', 'for', 'international', 'human', 'rights', 'reporting', 'standard', 'fihrrst', 'stud']</t>
+          <t>['bakrie', 'tanggap', 'salurkan', 'paket', 'sembako', 'akibat', 'hujan', 'lebat', 'intensitas', 'melanda', 'wilayah', 'jabodetab']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['bakrie', 'tanggap', 'salur', 'paket', 'sembako', 'akibat', 'hujan', 'lebat', 'intensitas', 'landa', 'wilayah', 'jabodetab']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>23559</v>
+        <v>30803</v>
       </c>
       <c r="C62" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt selain itu bumi juga menerima penghargaan sebagai perusahaan terbaik dengan skor  dalam pelaporan keberlanjutan susta</t>
+          <t>rt terima kasih pak atas ucapan selamat ulang tahun dan apresiasi untuk semoga di usianya yg ke tv</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'selain', 'itu', 'bumi', 'juga', 'menerima', 'penghargaan', 'sebagai', 'perusahaan', 'terbaik', 'dengan', 'skor', 'dalam', 'pelaporan', 'keberlanjutan', 'susta']</t>
+          <t>['rt', 'terima', 'kasih', 'pak', 'atas', 'ucapan', 'selamat', 'ulang', 'tahun', 'dan', 'apresiasi', 'untuk', 'semoga', 'di', 'usianya', 'yg', 'ke', 'tv']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'terima', 'kasih', 'pak', 'atas', 'ucapan', 'selamat', 'ulang', 'tahun', 'dan', 'apresiasi', 'untuk', 'semoga', 'di', 'usianya', 'yang', 'ke', 'televisi']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['bumi', 'menerima', 'penghargaan', 'perusahaan', 'terbaik', 'skor', 'pelaporan', 'keberlanjutan', 'susta']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['bumi', 'terima', 'harga', 'usaha', 'baik', 'skor', 'lapor', 'lanjut', 'susta']</t>
+          <t>['terima', 'kasih', 'ucapan', 'selamat', 'ulang', 'apresiasi', 'semoga', 'usianya', 'televisi']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'ucap', 'selamat', 'ulang', 'apresiasi', 'moga', 'usia', 'televisi']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>23560</v>
+        <v>30804</v>
       </c>
       <c r="C63" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rt dari upaya baik ini sudah banyak penghargaan yang diterima pt bumi resources tbk baik ke bumi langsung atau melalui pt</t>
+          <t>selamat tahun baru imlek semoga di tahun baru ini dilimpahi rejeki dan kesehatan gong xi fa cai</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['rt', 'dari', 'upaya', 'baik', 'ini', 'sudah', 'banyak', 'penghargaan', 'yang', 'diterima', 'pt', 'bumi', 'resources', 'tbk', 'baik', 'ke', 'bumi', 'langsung', 'atau', 'melalui', 'pt']</t>
+          <t>['selamat', 'tahun', 'baru', 'imlek', 'semoga', 'di', 'tahun', 'baru', 'ini', 'dilimpahi', 'rejeki', 'dan', 'kesehatan', 'gong', 'xi', 'fa', 'cai']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>['selamat', 'tahun', 'baru', 'imlek', 'semoga', 'di', 'tahun', 'baru', 'ini', 'dilimpahi', 'rejeki', 'dan', 'kesehatan', 'gong', 'xi', 'fa', 'cai']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['upaya', 'penghargaan', 'diterima', 'pt', 'bumi', 'resources', 'tbk', 'bumi', 'langsung', 'pt']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['upaya', 'harga', 'terima', 'pt', 'bumi', 'resources', 'tbk', 'bumi', 'langsung', 'pt']</t>
+          <t>['selamat', 'imlek', 'semoga', 'dilimpahi', 'rejeki', 'kesehatan', 'gong', 'xi', 'fa', 'cai']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['selamat', 'imlek', 'moga', 'limpah', 'rejeki', 'sehat', 'gong', 'xi', 'fa', 'cai']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>23561</v>
+        <v>30805</v>
       </c>
       <c r="C64" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>rt kita bisa melakukan aktivitas pertambangan metrik ton per tahun yang bagus secara bisnis namun juga bagus bag</t>
+          <t>terima kasih untuk seluruh keluarga besar bakrie insan bakrie yang selama ini bersama bekerja menjaga dan memaju</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['rt', 'kita', 'bisa', 'melakukan', 'aktivitas', 'pertambangan', 'metrik', 'ton', 'per', 'tahun', 'yang', 'bagus', 'secara', 'bisnis', 'namun', 'juga', 'bagus', 'bag']</t>
+          <t>['terima', 'kasih', 'untuk', 'seluruh', 'keluarga', 'besar', 'bakrie', 'insan', 'bakrie', 'yang', 'selama', 'ini', 'bersama', 'bekerja', 'menjaga', 'dan', 'memaju']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'untuk', 'seluruh', 'keluarga', 'besar', 'bakrie', 'insan', 'bakrie', 'yang', 'selama', 'ini', 'bersama', 'bekerja', 'menjaga', 'dan', 'memaju']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['aktivitas', 'pertambangan', 'metrik', 'ton', 'bagus', 'bisnis', 'bagus', 'bag']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['aktivitas', 'tambang', 'metrik', 'ton', 'bagus', 'bisnis', 'bagus', 'bag']</t>
+          <t>['terima', 'kasih', 'keluarga', 'bakrie', 'insan', 'bakrie', 'menjaga', 'memaju']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'keluarga', 'bakrie', 'insan', 'bakrie', 'jaga', 'maju']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>23562</v>
+        <v>30806</v>
       </c>
       <c r="C65" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt telaga batu arang ini hanya satu contoh dari aktivitas kami di dunia pertambangan kami membuktikan bawa do good and do</t>
+          <t>kini kelompok usaha yang dibangun ayah saya mulai dipimpin oleh generasi ketiga semoga di tangan mereka bakrie se</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'telaga', 'batu', 'arang', 'ini', 'hanya', 'satu', 'contoh', 'dari', 'aktivitas', 'kami', 'di', 'dunia', 'pertambangan', 'kami', 'membuktikan', 'bawa', 'do', 'good', 'and', 'do']</t>
+          <t>['kini', 'kelompok', 'usaha', 'yang', 'dibangun', 'ayah', 'saya', 'mulai', 'dipimpin', 'oleh', 'generasi', 'ketiga', 'semoga', 'di', 'tangan', 'mereka', 'bakrie', 'se']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['kini', 'kelompok', 'usaha', 'yang', 'dibangun', 'ayah', 'saya', 'mulai', 'dipimpin', 'oleh', 'generasi', 'ketiga', 'semoga', 'di', 'tangan', 'mereka', 'bakrie', 'se']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['telaga', 'batu', 'arang', 'contoh', 'aktivitas', 'dunia', 'pertambangan', 'membuktikan', 'bawa', 'do', 'good', 'and', 'do']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['telaga', 'batu', 'arang', 'contoh', 'aktivitas', 'dunia', 'tambang', 'bukti', 'bawa', 'do', 'good', 'and', 'do']</t>
+          <t>['kelompok', 'usaha', 'dibangun', 'ayah', 'dipimpin', 'generasi', 'ketiga', 'semoga', 'tangan', 'bakrie']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['kelompok', 'usaha', 'bangun', 'ayah', 'pimpin', 'generasi', 'tiga', 'moga', 'tangan', 'bakrie']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23563</v>
+        <v>30807</v>
       </c>
       <c r="C66" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt di sana juga dilakukan budidaya ikan yang bisa memberikan manfaat ekonomi bagi masyarakat selain dari pariwisata bahkan</t>
+          <t>hari ini kelompok usaha bakrie telah tahun berdiri hampir delapan dekade melewati pasang surut dan terus berk</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'di', 'sana', 'juga', 'dilakukan', 'budidaya', 'ikan', 'yang', 'bisa', 'memberikan', 'manfaat', 'ekonomi', 'bagi', 'masyarakat', 'selain', 'dari', 'pariwisata', 'bahkan']</t>
+          <t>['hari', 'ini', 'kelompok', 'usaha', 'bakrie', 'telah', 'tahun', 'berdiri', 'hampir', 'delapan', 'dekade', 'melewati', 'pasang', 'surut', 'dan', 'terus', 'berk']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['hari', 'ini', 'kelompok', 'usaha', 'bakrie', 'telah', 'tahun', 'berdiri', 'hampir', 'delapan', 'dekade', 'melewati', 'pasang', 'surut', 'dan', 'terus', 'berk']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['budidaya', 'ikan', 'manfaat', 'ekonomi', 'masyarakat', 'pariwisata']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['budidaya', 'ikan', 'manfaat', 'ekonomi', 'masyarakat', 'pariwisata']</t>
+          <t>['kelompok', 'usaha', 'bakrie', 'berdiri', 'delapan', 'dekade', 'melewati', 'pasang', 'surut', 'berk']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['kelompok', 'usaha', 'bakrie', 'diri', 'delapan', 'dekade', 'lewat', 'pasang', 'surut', 'berk']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23564</v>
+        <v>30808</v>
       </c>
       <c r="C67" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt selain jadi tempat wisata dan olahraga air di sana juga jadi area konservasi botani dan satwa rehabilitasi lahan yang</t>
+          <t xml:space="preserve">innalilahi wa innailaihi rojiuun mari kita berdoa semoga almarhum husnul khotimah diterima amal ibadahnya dan </t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'selain', 'jadi', 'tempat', 'wisata', 'dan', 'olahraga', 'air', 'di', 'sana', 'juga', 'jadi', 'area', 'konservasi', 'botani', 'dan', 'satwa', 'rehabilitasi', 'lahan', 'yang']</t>
+          <t>['innalilahi', 'wa', 'innailaihi', 'rojiuun', 'mari', 'kita', 'berdoa', 'semoga', 'almarhum', 'husnul', 'khotimah', 'diterima', 'amal', 'ibadahnya', 'dan']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['innalilahi', 'wa', 'innailaihi', 'rojiuun', 'mari', 'kita', 'berdoa', 'semoga', 'almarhum', 'husnul', 'khotimah', 'diterima', 'amal', 'ibadahnya', 'dan']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['wisata', 'olahraga', 'air', 'area', 'konservasi', 'botani', 'satwa', 'rehabilitasi', 'lahan']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['wisata', 'olahraga', 'air', 'area', 'konservasi', 'botani', 'satwa', 'rehabilitasi', 'lahan']</t>
+          <t>['innalilahi', 'wa', 'innailaihi', 'rojiuun', 'mari', 'berdoa', 'semoga', 'almarhum', 'husnul', 'khotimah', 'diterima', 'amal', 'ibadahnya']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['innalilahi', 'wa', 'innailaihi', 'rojiuun', 'mari', 'doa', 'moga', 'almarhum', 'husnul', 'khotimah', 'terima', 'amal', 'ibadah']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23565</v>
+        <v>30809</v>
       </c>
       <c r="C68" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt sejak kpc menyulap bekas tambang batubara seluas hektar dengan danau seluas hektar itu menjadi kawasan </t>
+          <t xml:space="preserve">prof fiz juga contoh orang yang sukses di usia yang masih sangat muda namun sayang beliau juga harus berpulang </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['rt', 'sejak', 'kpc', 'menyulap', 'bekas', 'tambang', 'batubara', 'seluas', 'hektar', 'dengan', 'danau', 'seluas', 'hektar', 'itu', 'menjadi', 'kawasan']</t>
+          <t>['prof', 'fiz', 'juga', 'contoh', 'orang', 'yang', 'sukses', 'di', 'usia', 'yang', 'masih', 'sangat', 'muda', 'namun', 'sayang', 'beliau', 'juga', 'harus', 'berpulang']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['prof', 'fiz', 'juga', 'contoh', 'orang', 'yang', 'sukses', 'di', 'usia', 'yang', 'masih', 'sangat', 'muda', 'namun', 'sayang', 'beliau', 'juga', 'harus', 'berpulang']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['kpc', 'menyulap', 'bekas', 'tambang', 'batubara', 'seluas', 'hektar', 'danau', 'seluas', 'hektar', 'kawasan']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['kpc', 'sulap', 'bekas', 'tambang', 'batubara', 'luas', 'hektar', 'danau', 'luas', 'hektar', 'kawasan']</t>
+          <t>['prof', 'fiz', 'contoh', 'orang', 'sukses', 'usia', 'muda', 'sayang', 'beliau', 'berpulang']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['prof', 'fiz', 'contoh', 'orang', 'sukses', 'usia', 'muda', 'sayang', 'beliau', 'pulang']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23566</v>
+        <v>30810</v>
       </c>
       <c r="C69" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt trying to do good and do well simultaneously ini adalah telaga batu arang jika datang dan melihat keindahannya </t>
+          <t>saya mengenal prof fiz ini tidak hanya sebagai komisaris independen bakrie amp brothers dan rektor tap</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['rt', 'trying', 'to', 'do', 'good', 'and', 'do', 'well', 'simultaneously', 'ini', 'adalah', 'telaga', 'batu', 'arang', 'jika', 'datang', 'dan', 'melihat', 'keindahannya']</t>
+          <t>['saya', 'mengenal', 'prof', 'fiz', 'ini', 'tidak', 'hanya', 'sebagai', 'komisaris', 'independen', 'bakrie', 'amp', 'brothers', 'dan', 'rektor', 'tap']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['saya', 'mengenal', 'prof', 'fiz', 'ini', 'tidak', 'hanya', 'sebagai', 'komisaris', 'bebas', 'bakrie', 'amp', 'brothers', 'dan', 'rektor', 'tap']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['trying', 'to', 'do', 'good', 'and', 'do', 'well', 'simultaneously', 'telaga', 'batu', 'arang', 'keindahannya']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['trying', 'to', 'do', 'good', 'and', 'do', 'well', 'simultaneously', 'telaga', 'batu', 'arang', 'indah']</t>
+          <t>['mengenal', 'prof', 'fiz', 'komisaris', 'bebas', 'bakrie', 'brothers', 'rektor', 'tap']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['kenal', 'prof', 'fiz', 'komisaris', 'bebas', 'bakrie', 'brothers', 'rektor', 'tap']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23567</v>
+        <v>30811</v>
       </c>
       <c r="C70" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>dalam kesempatan tadi juga hadir pengurus dpp lainnya seperti sekjen pak lodewijk  paulus menpora zainudin amali</t>
+          <t>saya turut berdukacita yang mendalam atas wafatnya prof firmanzah pada hari ini sabtu februari pukul</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['dalam', 'kesempatan', 'tadi', 'juga', 'hadir', 'pengurus', 'dpp', 'lainnya', 'seperti', 'sekjen', 'pak', 'lodewijk', 'paulus', 'menpora', 'zainudin', 'amali']</t>
+          <t>['saya', 'turut', 'berdukacita', 'yang', 'mendalam', 'atas', 'wafatnya', 'prof', 'firmanzah', 'pada', 'hari', 'ini', 'sabtu', 'februari', 'pukul']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['saya', 'turut', 'berdukacita', 'yang', 'mendalam', 'atas', 'wafatnya', 'prof', 'firmanzah', 'pada', 'hari', 'ini', 'sabtu', 'februari', 'pukul']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['kesempatan', 'hadir', 'pengurus', 'dpp', 'sekjen', 'lodewijk', 'paulus', 'menpora', 'zainudin', 'amali']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['sempat', 'hadir', 'urus', 'dpp', 'sekjen', 'lodewijk', 'paulus', 'menpora', 'zainudin', 'amal']</t>
+          <t>['berdukacita', 'mendalam', 'wafatnya', 'prof', 'firmanzah', 'sabtu', 'februari']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['dukacita', 'dalam', 'wafat', 'prof', 'firmanzah', 'sabtu', 'februari']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23568</v>
+        <v>30812</v>
       </c>
       <c r="C71" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>tadi ketum juga menginformasikan bahwa akan meluncurkan golkar institute sebuah sekolah kebijakan publik dan yello</t>
+          <t>selamat atas soft launching golkar institute semoga golkar institute bisa menghidupkan kultur dan atmosfir intele</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['tadi', 'ketum', 'juga', 'menginformasikan', 'bahwa', 'akan', 'meluncurkan', 'golkar', 'institute', 'sebuah', 'sekolah', 'kebijakan', 'publik', 'dan', 'yello']</t>
+          <t>['selamat', 'atas', 'soft', 'launching', 'golkar', 'institute', 'semoga', 'golkar', 'institute', 'bisa', 'menghidupkan', 'kultur', 'dan', 'atmosfir', 'intele']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['selamat', 'atas', 'lembut', 'launching', 'golkar', 'institute', 'semoga', 'golkar', 'institute', 'bisa', 'menghidupkan', 'kultur', 'dan', 'atmosfir', 'intele']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['ketum', 'menginformasikan', 'meluncurkan', 'golkar', 'institute', 'sekolah', 'kebijakan', 'publik', 'yello']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['tum', 'informasi', 'luncur', 'golkar', 'institute', 'sekolah', 'bijak', 'publik', 'yello']</t>
+          <t>['selamat', 'lembut', 'launching', 'golkar', 'institute', 'semoga', 'golkar', 'institute', 'menghidupkan', 'kultur', 'atmosfir', 'intele']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['selamat', 'lembut', 'launching', 'golkar', 'institute', 'moga', 'golkar', 'institute', 'hidup', 'kultur', 'atmosfir', 'intele']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23569</v>
+        <v>30813</v>
       </c>
       <c r="C72" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>meski pandemi covid partai golkar tetap berjalan melakukan aktivitas politik untuk meraih kemenangan di pilkada</t>
+          <t>selamat hari lahir ke semoga terus maju dan terus menebarkan islam yang moderat dan komitmen keb</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['meski', 'pandemi', 'covid', 'partai', 'golkar', 'tetap', 'berjalan', 'melakukan', 'aktivitas', 'politik', 'untuk', 'meraih', 'kemenangan', 'di', 'pilkada']</t>
+          <t>['selamat', 'hari', 'lahir', 'ke', 'semoga', 'terus', 'maju', 'dan', 'terus', 'menebarkan', 'islam', 'yang', 'moderat', 'dan', 'komitmen', 'keb']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'lahir', 'ke', 'semoga', 'terus', 'maju', 'dan', 'terus', 'menebarkan', 'islam', 'yang', 'moderat', 'dan', 'komitmen', 'keb']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['pandemi', 'covid', 'partai', 'golkar', 'berjalan', 'aktivitas', 'politik', 'meraih', 'kemenangan', 'pilkada']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['pandemi', 'covid', 'partai', 'golkar', 'jalan', 'aktivitas', 'politik', 'raih', 'menang', 'pilkada']</t>
+          <t>['selamat', 'lahir', 'semoga', 'maju', 'menebarkan', 'islam', 'moderat', 'komitmen', 'keb']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['selamat', 'lahir', 'moga', 'maju', 'tebar', 'islam', 'moderat', 'komitmen', 'keb']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23570</v>
+        <v>30814</v>
       </c>
       <c r="C73" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>beliau banyak menyampaikan terkait reformasi aturan perundangan di era reformasi uu cipta kerja jg terkait progra</t>
+          <t>rt mari bersamasama mewujudkan recovery wilayah terdampak bencana mari berdonasi melalui donasi melalui</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['beliau', 'banyak', 'menyampaikan', 'terkait', 'reformasi', 'aturan', 'perundangan', 'di', 'era', 'reformasi', 'uu', 'cipta', 'kerja', 'jg', 'terkait', 'progra']</t>
+          <t>['rt', 'mari', 'bersamasama', 'mewujudkan', 'recovery', 'wilayah', 'terdampak', 'bencana', 'mari', 'berdonasi', 'melalui', 'donasi', 'melalui']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'mari', 'bersamasama', 'mewujudkan', 'recovery', 'wilayah', 'terdampak', 'bencana', 'mari', 'berdonasi', 'melalui', 'donasi', 'melalui']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['beliau', 'terkait', 'reformasi', 'aturan', 'perundangan', 'era', 'reformasi', 'uu', 'cipta', 'kerja', 'jg', 'terkait', 'progra']</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['beliau', 'kait', 'reformasi', 'atur', 'undang', 'era', 'reformasi', 'uu', 'cipta', 'kerja', 'jg', 'kait', 'progra']</t>
+          <t>['mari', 'bersamasama', 'mewujudkan', 'recovery', 'wilayah', 'terdampak', 'bencana', 'mari', 'berdonasi', 'donasi']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['mari', 'bersamasama', 'wujud', 'recovery', 'wilayah', 'dampak', 'bencana', 'mari', 'donasi', 'donasi']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>23571</v>
+        <v>30815</v>
       </c>
       <c r="C74" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>juga terkait persiapan partai golkar dalam menghadapi pilkada di daerah di mana ketua umum menyampaikan target</t>
+          <t>rt aceh dengan ukurannya yang relatif kecil memang bus ini dapat beroperasi pada ruas jalan yang tidak terlalu lebar hal itu ses</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['juga', 'terkait', 'persiapan', 'partai', 'golkar', 'dalam', 'menghadapi', 'pilkada', 'di', 'daerah', 'di', 'mana', 'ketua', 'umum', 'menyampaikan', 'target']</t>
+          <t>['rt', 'aceh', 'dengan', 'ukurannya', 'yang', 'relatif', 'kecil', 'memang', 'bus', 'ini', 'dapat', 'beroperasi', 'pada', 'ruas', 'jalan', 'yang', 'tidak', 'terlalu', 'lebar', 'hal', 'itu', 'ses']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'aceh', 'dengan', 'ukurannya', 'yang', 'relatif', 'kecil', 'memang', 'bus', 'ini', 'dapat', 'beroperasi', 'pada', 'ruas', 'jalan', 'yang', 'tidak', 'terlalu', 'lebar', 'hal', 'itu', 'ses']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['terkait', 'persiapan', 'partai', 'golkar', 'menghadapi', 'pilkada', 'daerah', 'ketua', 'target']</t>
+          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['kait', 'siap', 'partai', 'golkar', 'hadap', 'pilkada', 'daerah', 'ketua', 'target']</t>
+          <t>['aceh', 'ukurannya', 'relatif', 'bus', 'beroperasi', 'ruas', 'jalan', 'lebar', 'ses']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['aceh', 'ukur', 'relatif', 'bus', 'operasi', 'ruas', 'jalan', 'lebar', 'ses']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>23572</v>
+        <v>30816</v>
       </c>
       <c r="C75" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">dalam kesempatan itu pak airlangga menyampaikan beberapa informasi misalnya musda partai golkar saat ini sudah </t>
+          <t>rt aceh saddam makmur salah satu juru mudi uji coba memberikan penilaian terhadap bus ini selama saya kendarai tidak ada kenda</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['dalam', 'kesempatan', 'itu', 'pak', 'airlangga', 'menyampaikan', 'beberapa', 'informasi', 'misalnya', 'musda', 'partai', 'golkar', 'saat', 'ini', 'sudah']</t>
+          <t>['rt', 'aceh', 'saddam', 'makmur', 'salah', 'satu', 'juru', 'mudi', 'uji', 'coba', 'memberikan', 'penilaian', 'terhadap', 'bus', 'ini', 'selama', 'saya', 'kendarai', 'tidak', 'ada', 'kenda']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'aceh', 'saddam', 'makmur', 'salah', 'satu', 'juru', 'mudi', 'uji', 'coba', 'memberikan', 'penilaian', 'terhadap', 'bus', 'ini', 'selama', 'saya', 'kendarai', 'tidak', 'ada', 'kenda']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['kesempatan', 'airlangga', 'informasi', 'musda', 'partai', 'golkar']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['sempat', 'airlangga', 'informasi', 'musda', 'partai', 'golkar']</t>
+          <t>['aceh', 'saddam', 'makmur', 'salah', 'juru', 'mudi', 'uji', 'coba', 'penilaian', 'bus', 'kendarai', 'kenda']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['aceh', 'saddam', 'makmur', 'salah', 'juru', 'mud', 'uji', 'coba', 'nilai', 'bus', 'kendara', 'kenda']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>23573</v>
+        <v>30817</v>
       </c>
       <c r="C76" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>sore tadi dewan pembina partai golkar berdiskusi ringan dengan dengan ketua umum dpp partai golkar hrt</t>
+          <t>rt aceh bus listrik telah menyusuri jalanan ibukota banda aceh selama seminggu bus yang difungsikan sebagai feeder trans koetarad</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['sore', 'tadi', 'dewan', 'pembina', 'partai', 'golkar', 'berdiskusi', 'ringan', 'dengan', 'dengan', 'ketua', 'umum', 'dpp', 'partai', 'golkar', 'hrt']</t>
+          <t>['rt', 'aceh', 'bus', 'listrik', 'telah', 'menyusuri', 'jalanan', 'ibukota', 'banda', 'aceh', 'selama', 'seminggu', 'bus', 'yang', 'difungsikan', 'sebagai', 'feeder', 'trans', 'koetarad']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'aceh', 'bus', 'listrik', 'telah', 'menyusuri', 'jalanan', 'ibu, kota', 'banda', 'aceh', 'selama', 'seminggu', 'bus', 'yang', 'difungsikan', 'sebagai', 'feeder', 'trans', 'koetarad']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['sore', 'dewan', 'pembina', 'partai', 'golkar', 'berdiskusi', 'ringan', 'ketua', 'dpp', 'partai', 'golkar', 'hrt']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['sore', 'dewan', 'bina', 'partai', 'golkar', 'diskus', 'ringan', 'ketua', 'dpp', 'partai', 'golkar', 'hrt']</t>
+          <t>['aceh', 'bus', 'listrik', 'menyusuri', 'jalanan', 'ibu, kota', 'banda', 'aceh', 'seminggu', 'bus', 'difungsikan', 'feeder', 'trans', 'koetarad']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['aceh', 'bus', 'listrik', 'susur', 'jalan', 'ibu kota', 'banda', 'aceh', 'minggu', 'bus', 'fungsi', 'feeder', 'trans', 'koetarad']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>23574</v>
+        <v>30818</v>
       </c>
       <c r="C77" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>saat ini kita juga bisa menjadi pahlawan dengan berjuang melawan pandemi corona sesuai dengan kemampuan kita masing</t>
+          <t>rt semoga bencana ini bisa segera kita lewati semoga yang rusak dan sirna bisa kita bangun kembali semoga juga pandemi se</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['saat', 'ini', 'kita', 'juga', 'bisa', 'menjadi', 'pahlawan', 'dengan', 'berjuang', 'melawan', 'pandemi', 'corona', 'sesuai', 'dengan', 'kemampuan', 'kita', 'masing']</t>
+          <t>['rt', 'semoga', 'bencana', 'ini', 'bisa', 'segera', 'kita', 'lewati', 'semoga', 'yang', 'rusak', 'dan', 'sirna', 'bisa', 'kita', 'bangun', 'kembali', 'semoga', 'juga', 'pandemi', 'se']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'semoga', 'bencana', 'ini', 'bisa', 'segera', 'kita', 'lewati', 'semoga', 'yang', 'rusak', 'dan', 'sirna', 'bisa', 'kita', 'bangun', 'kembali', 'semoga', 'juga', 'pandemi', 'se']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['pahlawan', 'berjuang', 'melawan', 'pandemi', 'corona', 'sesuai', 'kemampuan']</t>
+          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['pahlawan', 'juang', 'lawan', 'pandemi', 'corona', 'sesuai', 'mampu']</t>
+          <t>['semoga', 'bencana', 'lewati', 'semoga', 'rusak', 'sirna', 'bangun', 'semoga', 'pandemi']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['moga', 'bencana', 'lewat', 'moga', 'rusak', 'sirna', 'bangun', 'moga', 'pandemi']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>23575</v>
+        <v>30819</v>
       </c>
       <c r="C78" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>selamat hari pahlawan bangsa yang besar adalah bangsa yang menghargai jasa para pahlawannya teruskan perjuanga</t>
+          <t>rt update kegiatan bisa dipantau di akun terkait seperti untuk dan sebagainy</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'pahlawan', 'bangsa', 'yang', 'besar', 'adalah', 'bangsa', 'yang', 'menghargai', 'jasa', 'para', 'pahlawannya', 'teruskan', 'perjuanga']</t>
+          <t>['rt', 'update', 'kegiatan', 'bisa', 'dipantau', 'di', 'akun', 'terkait', 'seperti', 'untuk', 'dan', 'sebagainy']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'pembaruan', 'kegiatan', 'bisa', 'dipantau', 'di', 'akun', 'terkait', 'seperti', 'untuk', 'dan', 'sebagainy']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['selamat', 'pahlawan', 'bangsa', 'bangsa', 'menghargai', 'jasa', 'pahlawannya', 'teruskan', 'perjuanga']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['selamat', 'pahlawan', 'bangsa', 'bangsa', 'harga', 'jasa', 'pahlawan', 'terus', 'perjuanga']</t>
+          <t>['pembaruan', 'kegiatan', 'dipantau', 'akun', 'terkait', 'sebagainy']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['baru', 'giat', 'pantau', 'akun', 'kait', 'sebagainy']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>23576</v>
+        <v>30820</v>
       </c>
       <c r="C79" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>selamat memperingati maulid nabi muhammad saw mari kita teladani beliau yang senantiasa mencontohkan akhlak yang</t>
+          <t>rt selain mengerahkan sumber daya yang kami miliki kami juga memfasilitasi publik yang ingin membantu korban bencana melal</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['selamat', 'memperingati', 'maulid', 'nabi', 'muhammad', 'saw', 'mari', 'kita', 'teladani', 'beliau', 'yang', 'senantiasa', 'mencontohkan', 'akhlak', 'yang']</t>
+          <t>['rt', 'selain', 'mengerahkan', 'sumber', 'daya', 'yang', 'kami', 'miliki', 'kami', 'juga', 'memfasilitasi', 'publik', 'yang', 'ingin', 'membantu', 'korban', 'bencana', 'melal']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'selain', 'mengerahkan', 'sumber', 'daya', 'yang', 'kami', 'miliki', 'kami', 'juga', 'memfasilitasi', 'publik', 'yang', 'ingin', 'membantu', 'korban', 'bencana', 'melal']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['selamat', 'memperingati', 'maulid', 'nabi', 'muhammad', 'saw', 'mari', 'teladani', 'beliau', 'senantiasa', 'mencontohkan', 'akhlak']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['selamat', 'ingat', 'maulid', 'nabi', 'muhammad', 'saw', 'mari', 'teladan', 'beliau', 'senantiasa', 'contoh', 'akhlak']</t>
+          <t>['mengerahkan', 'sumber', 'daya', 'miliki', 'memfasilitasi', 'publik', 'membantu', 'korban', 'bencana', 'melal']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['kerah', 'sumber', 'daya', 'milik', 'fasilitas', 'publik', 'bantu', 'korban', 'bencana', 'melal']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23577</v>
+        <v>30821</v>
       </c>
       <c r="C80" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>selamat hari sumpah pemuda bersatulah pemuda indonesia untuk indonesia yang bangkit menjadi semakin maju dan sej</t>
+          <t>rt alhamdulillah selama ini kami bisa selalu hadir dan membantu di setiap bencana mulai dari fase tanggap darurat sampai re</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'sumpah', 'pemuda', 'bersatulah', 'pemuda', 'indonesia', 'untuk', 'indonesia', 'yang', 'bangkit', 'menjadi', 'semakin', 'maju', 'dan', 'sej']</t>
+          <t>['rt', 'alhamdulillah', 'selama', 'ini', 'kami', 'bisa', 'selalu', 'hadir', 'dan', 'membantu', 'di', 'setiap', 'bencana', 'mulai', 'dari', 'fase', 'tanggap', 'darurat', 'sampai', 're']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'alhamdulillah', 'selama', 'ini', 'kami', 'bisa', 'selalu', 'hadir', 'dan', 'membantu', 'di', 'setiap', 'bencana', 'mulai', 'dari', 'fase', 'tanggap', 'darurat', 'sampai', 're']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['selamat', 'sumpah', 'pemuda', 'bersatulah', 'pemuda', 'indonesia', 'indonesia', 'bangkit', 'maju', 'sej']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['selamat', 'sumpah', 'pemuda', 'satu', 'pemuda', 'indonesia', 'indonesia', 'bangkit', 'maju', 'sej']</t>
+          <t>['alhamdulillah', 'hadir', 'membantu', 'bencana', 'fase', 'tanggap', 'darurat', 're']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'hadir', 'bantu', 'bencana', 'fase', 'tanggap', 'darurat', 're']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23578</v>
+        <v>30822</v>
       </c>
       <c r="C81" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>pak roemkono tadi juga minta doa restu atas penugasan beliau selaku dubes ri untuk bosnia selamat bertugas untuk</t>
+          <t>rt kami di kelompok usaha bakrie kub baik melalui bakrie tanggap maupun tim di berbagai unit telah turut serta bersama</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['pak', 'roemkono', 'tadi', 'juga', 'minta', 'doa', 'restu', 'atas', 'penugasan', 'beliau', 'selaku', 'dubes', 'ri', 'untuk', 'bosnia', 'selamat', 'bertugas', 'untuk']</t>
+          <t>['rt', 'kami', 'di', 'kelompok', 'usaha', 'bakrie', 'kub', 'baik', 'melalui', 'bakrie', 'tanggap', 'maupun', 'tim', 'di', 'berbagai', 'unit', 'telah', 'turut', 'serta', 'bersama']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'kami', 'di', 'kelompok', 'usaha', 'bakrie', 'kub', 'baik', 'melalui', 'bakrie', 'tanggap', 'maupun', 'tim', 'di', 'berbagai', 'unit', 'telah', 'turut', 'serta', 'bersama']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['roemkono', 'doa', 'restu', 'penugasan', 'beliau', 'dubes', 'ri', 'bosnia', 'selamat', 'bertugas']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['roemkono', 'doa', 'restu', 'tugas', 'beliau', 'dubes', 'ri', 'bosnia', 'selamat', 'tugas']</t>
+          <t>['kelompok', 'usaha', 'bakrie', 'kub', 'bakrie', 'tanggap', 'tim', 'unit']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['kelompok', 'usaha', 'bakrie', 'kub', 'bakrie', 'tanggap', 'tim', 'unit']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>23579</v>
+        <v>30823</v>
       </c>
       <c r="C82" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>dama situasi sulit seperti saat ini mkgr harus membangkikan semangat optmimisme anggotanya dan masyarakat</t>
+          <t>rt saya juga mengajak kita semua untuk berdoa agar korban yang meninggal mendapatkan tempat terbaik di sisi allah swt korb</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['dama', 'situasi', 'sulit', 'seperti', 'saat', 'ini', 'mkgr', 'harus', 'membangkikan', 'semangat', 'optmimisme', 'anggotanya', 'dan', 'masyarakat']</t>
+          <t>['rt', 'saya', 'juga', 'mengajak', 'kita', 'semua', 'untuk', 'berdoa', 'agar', 'korban', 'yang', 'meninggal', 'mendapatkan', 'tempat', 'terbaik', 'di', 'sisi', 'allah', 'swt', 'korb']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'saya', 'juga', 'mengajak', 'kita', 'semua', 'untuk', 'berdoa', 'agar', 'korban', 'yang', 'meninggal', 'mendapatkan', 'tempat', 'terbaik', 'di', 'sisi', 'allah', 'subhanahu, wa, taala', 'korb']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['dama', 'situasi', 'sulit', 'mkgr', 'membangkikan', 'semangat', 'optmimisme', 'anggotanya', 'masyarakat']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['dama', 'situasi', 'sulit', 'mkgr', 'membangkikan', 'semangat', 'optmimisme', 'anggota', 'masyarakat']</t>
+          <t>['mengajak', 'berdoa', 'korban', 'meninggal', 'terbaik', 'sisi', 'allah', 'subhanahu, wa, taala', 'korb']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['ajak', 'doa', 'korban', 'tinggal', 'baik', 'sisi', 'allah', 'subhanahu wa taala', 'korb']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>23580</v>
+        <v>30824</v>
       </c>
       <c r="C83" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>dalam pertemuan tadi saya sampaikan agar mubes mkgr tidak hanya memilih ketua umum saja tapi juga membahas berbaga</t>
+          <t>rt karenanya saya secara pribadi dan mewakili keluarga besar kelompok usaha bakrie ingin menyampaikan keprihatinan dan duk</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['dalam', 'pertemuan', 'tadi', 'saya', 'sampaikan', 'agar', 'mubes', 'mkgr', 'tidak', 'hanya', 'memilih', 'ketua', 'umum', 'saja', 'tapi', 'juga', 'membahas', 'berbaga']</t>
+          <t>['rt', 'karenanya', 'saya', 'secara', 'pribadi', 'dan', 'mewakili', 'keluarga', 'besar', 'kelompok', 'usaha', 'bakrie', 'ingin', 'menyampaikan', 'keprihatinan', 'dan', 'duk']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'karenanya', 'saya', 'secara', 'pribadi', 'dan', 'mewakili', 'keluarga', 'besar', 'kelompok', 'usaha', 'bakrie', 'ingin', 'menyampaikan', 'keprihatinan', 'dan', 'duk']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['pertemuan', 'mubes', 'mkgr', 'memilih', 'ketua', 'membahas', 'berbaga']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['temu', 'mubes', 'mkgr', 'pilih', 'ketua', 'bahas', 'berbaga']</t>
+          <t>['pribadi', 'mewakili', 'keluarga', 'kelompok', 'usaha', 'bakrie', 'keprihatinan', 'duk']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['pribadi', 'wakil', 'keluarga', 'kelompok', 'usaha', 'bakrie', 'prihatin', 'duk']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23581</v>
+        <v>30825</v>
       </c>
       <c r="C84" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>selain bersilaturahmi pak roemkono dan kawankawan juga menyampaikan laporan sekaligus menyampaikan undangan terka</t>
+          <t>rt berbagai bencana ini merenggut tak sedikit korban jiwa dan harta benda serta meninggalkan nestapa bagi para korbannya</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['selain', 'bersilaturahmi', 'pak', 'roemkono', 'dan', 'kawankawan', 'juga', 'menyampaikan', 'laporan', 'sekaligus', 'menyampaikan', 'undangan', 'terka']</t>
+          <t>['rt', 'berbagai', 'bencana', 'ini', 'merenggut', 'tak', 'sedikit', 'korban', 'jiwa', 'dan', 'harta', 'benda', 'serta', 'meninggalkan', 'nestapa', 'bagi', 'para', 'korbannya']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'berbagai', 'bencana', 'ini', 'merenggut', 'tak', 'sedikit', 'korban', 'jiwa', 'dan', 'harta', 'benda', 'serta', 'meninggalkan', 'nestapa', 'bagi', 'para', 'korbannya']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['bersilaturahmi', 'roemkono', 'kawankawan', 'laporan', 'undangan', 'terka']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['silaturahmi', 'roemkono', 'kawankawan', 'lapor', 'undang', 'terka']</t>
+          <t>['bencana', 'merenggut', 'korban', 'jiwa', 'harta', 'benda', 'meninggalkan', 'nestapa', 'korbannya']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['bencana', 'renggut', 'korban', 'jiwa', 'harta', 'benda', 'tinggal', 'nestapa', 'korban']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23582</v>
+        <v>30826</v>
       </c>
       <c r="C85" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>menerima pengurus mkgr di bawah pimpinan pak roemkono hadir juga pengurus mkgr lainnya nurularifin adies kad</t>
+          <t>rt ada bencana longsor di sumedang dan banjir bandang di puncak jawa barat banjir yang menggenangi sejumlah wilayah di kal</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['menerima', 'pengurus', 'mkgr', 'di', 'bawah', 'pimpinan', 'pak', 'roemkono', 'hadir', 'juga', 'pengurus', 'mkgr', 'lainnya', 'nurularifin', 'adies', 'kad']</t>
+          <t>['rt', 'ada', 'bencana', 'longsor', 'di', 'sumedang', 'dan', 'banjir', 'bandang', 'di', 'puncak', 'jawa', 'barat', 'banjir', 'yang', 'menggenangi', 'sejumlah', 'wilayah', 'di', 'kal']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'ada', 'bencana', 'longsor', 'di', 'sumedang', 'dan', 'banjir', 'bandang', 'di', 'puncak', 'jawa', 'barat', 'banjir', 'yang', 'menggenangi', 'sejumlah', 'wilayah', 'di', 'kal']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['menerima', 'pengurus', 'mkgr', 'pimpinan', 'roemkono', 'hadir', 'pengurus', 'mkgr', 'nurularifin', 'adies', 'kad']</t>
+          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['terima', 'urus', 'mkgr', 'pimpin', 'roemkono', 'hadir', 'urus', 'mkgr', 'nurularifin', 'adies', 'kad']</t>
+          <t>['bencana', 'longsor', 'sumedang', 'banjir', 'bandang', 'puncak', 'jawa', 'barat', 'banjir', 'menggenangi', 'wilayah', 'kal']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['bencana', 'longsor', 'sumedang', 'banjir', 'bandang', 'puncak', 'jawa', 'barat', 'banjir', 'genang', 'wilayah', 'kal']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>23583</v>
+        <v>30827</v>
       </c>
       <c r="C86" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>tadi juga saya sampaikan harapanharapan saya kepada airlangga hartarto bagaimaa sosok airlangga di mata saya si</t>
+          <t>rt di awal tahun ini di tengah pandemi yang belum teratasi secara tak terduga bencana hadir di berbagai daerah di indones</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['tadi', 'juga', 'saya', 'sampaikan', 'harapanharapan', 'saya', 'kepada', 'airlangga', 'hartarto', 'bagaimaa', 'sosok', 'airlangga', 'di', 'mata', 'saya', 'si']</t>
+          <t>['rt', 'di', 'awal', 'tahun', 'ini', 'di', 'tengah', 'pandemi', 'yang', 'belum', 'teratasi', 'secara', 'tak', 'terduga', 'bencana', 'hadir', 'di', 'berbagai', 'daerah', 'di', 'indones']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'di', 'awal', 'tahun', 'ini', 'di', 'tengah', 'pandemi', 'yang', 'belum', 'teratasi', 'secara', 'tak', 'terduga', 'bencana', 'hadir', 'di', 'berbagai', 'daerah', 'di', 'indonesia']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['harapanharapan', 'airlangga', 'hartarto', 'bagaimaa', 'sosok', 'airlangga', 'mata']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['harapanharapan', 'airlangga', 'hartarto', 'bagaimaa', 'sosok', 'airlangga', 'mata']</t>
+          <t>['pandemi', 'teratasi', 'terduga', 'bencana', 'hadir', 'daerah', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['pandemi', 'atas', 'duga', 'bencana', 'hadir', 'daerah', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>23584</v>
+        <v>30828</v>
       </c>
       <c r="C87" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>sebagai bahan tulisan barkah meminta pendangan saya atas sosok hrt baik sebagai pribadi maupun sebagai</t>
+          <t>semoga beliau husnul khotimah dan mendapatkan tempat terbaik di sisi allah swt dan keluarga yang ditinggalkan diberikan kesabaran amin</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['sebagai', 'bahan', 'tulisan', 'barkah', 'meminta', 'pendangan', 'saya', 'atas', 'sosok', 'hrt', 'baik', 'sebagai', 'pribadi', 'maupun', 'sebagai']</t>
+          <t>['semoga', 'beliau', 'husnul', 'khotimah', 'dan', 'mendapatkan', 'tempat', 'terbaik', 'di', 'sisi', 'allah', 'swt', 'dan', 'keluarga', 'yang', 'ditinggalkan', 'diberikan', 'kesabaran', 'amin']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['semoga', 'beliau', 'husnul', 'khotimah', 'dan', 'mendapatkan', 'tempat', 'terbaik', 'di', 'sisi', 'allah', 'subhanahu, wa, taala', 'dan', 'keluarga', 'yang', 'ditinggalkan', 'diberikan', 'kesabaran', 'amin']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['bahan', 'tulisan', 'barkah', 'pendangan', 'sosok', 'hrt', 'pribadi']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['bahan', 'tulis', 'bar', 'dang', 'sosok', 'hrt', 'pribadi']</t>
+          <t>['semoga', 'beliau', 'husnul', 'khotimah', 'terbaik', 'sisi', 'allah', 'subhanahu, wa, taala', 'keluarga', 'ditinggalkan', 'kesabaran', 'amin']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['moga', 'beliau', 'husnul', 'khotimah', 'baik', 'sisi', 'allah', 'subhanahu wa taala', 'keluarga', 'tinggal', 'sabar', 'amin']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>23585</v>
+        <v>30829</v>
       </c>
       <c r="C88" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>menerima  barkah pattimahu yang akan menulis buku satu tahun airlangga hartarto sebagai menko perekonomian</t>
+          <t>inalillahi wa innailaihi rojiun turut berduka cita yang mendalam atas wafatnya beliau adalah ul</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['menerima', 'barkah', 'pattimahu', 'yang', 'akan', 'menulis', 'buku', 'satu', 'tahun', 'airlangga', 'hartarto', 'sebagai', 'menko', 'perekonomian']</t>
+          <t>['inalillahi', 'wa', 'innailaihi', 'rojiun', 'turut', 'berduka', 'cita', 'yang', 'mendalam', 'atas', 'wafatnya', 'beliau', 'adalah', 'ul']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['inalillahi', 'wa', 'innailaihi', 'rojiun', 'turut', 'berduka', 'cita', 'yang', 'mendalam', 'atas', 'wafatnya', 'beliau', 'adalah', 'ul']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['menerima', 'barkah', 'pattimahu', 'menulis', 'buku', 'airlangga', 'hartarto', 'menko', 'perekonomian']</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['terima', 'bar', 'pattimahu', 'tulis', 'buku', 'airlangga', 'hartarto', 'menko', 'ekonomi']</t>
+          <t>['inalillahi', 'wa', 'innailaihi', 'rojiun', 'berduka', 'cita', 'mendalam', 'wafatnya', 'beliau', 'ul']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['inalillahi', 'wa', 'innailaihi', 'rojiun', 'duka', 'cita', 'dalam', 'wafat', 'beliau', 'ul']</t>
         </is>
       </c>
     </row>
@@ -3607,30 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>23586</v>
+        <v>30830</v>
       </c>
       <c r="C89" t="n">
-        <v>283</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>358</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>atas musibah kecelakaan pesawat sriwijaya air sj kemarin saya turut berdukacita yang mendalam semoga korban</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['atas', 'musibah', 'kecelakaan', 'pesawat', 'sriwijaya', 'air', 'sj', 'kemarin', 'saya', 'turut', 'berdukacita', 'yang', 'mendalam', 'semoga', 'korban']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['atas', 'musibah', 'kecelakaan', 'pesawat', 'sriwijaya', 'air', 'saja', 'kemarin', 'saya', 'turut', 'berdukacita', 'yang', 'mendalam', 'semoga', 'korban']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['musibah', 'kecelakaan', 'pesawat', 'sriwijaya', 'air', 'kemarin', 'berdukacita', 'mendalam', 'semoga', 'korban']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['musibah', 'celaka', 'pesawat', 'sriwijaya', 'air', 'kemarin', 'dukacita', 'dalam', 'moga', 'korban']</t>
         </is>
       </c>
     </row>
@@ -3639,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>23587</v>
+        <v>30831</v>
       </c>
       <c r="C90" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>selamat ulang tahun yang ke partai golkar jaga persatuan lupakan segala perbedaan dan mari bersama memenangkan</t>
+          <t>selamat tahun baru semoga di tahun ini lebih baik dari tahun sebelumnya semoga pandemi dan krisis ekonomi</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'tahun', 'yang', 'ke', 'partai', 'golkar', 'jaga', 'persatuan', 'lupakan', 'segala', 'perbedaan', 'dan', 'mari', 'bersama', 'memenangkan']</t>
+          <t>['selamat', 'tahun', 'baru', 'semoga', 'di', 'tahun', 'ini', 'lebih', 'baik', 'dari', 'tahun', 'sebelumnya', 'semoga', 'pandemi', 'dan', 'krisis', 'ekonomi']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['selamat', 'tahun', 'baru', 'semoga', 'di', 'tahun', 'ini', 'lebih', 'baik', 'dari', 'tahun', 'sebelumnya', 'semoga', 'pandemi', 'dan', 'krisis', 'ekonomi']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'partai', 'golkar', 'jaga', 'persatuan', 'lupakan', 'perbedaan', 'mari', 'memenangkan']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'partai', 'golkar', 'jaga', 'satu', 'lupa', 'beda', 'mari', 'menang']</t>
+          <t>['selamat', 'semoga', 'semoga', 'pandemi', 'krisis', 'ekonomi']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['selamat', 'moga', 'moga', 'pandemi', 'krisis', 'ekonomi']</t>
         </is>
       </c>
     </row>
@@ -3675,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>23588</v>
+        <v>30832</v>
       </c>
       <c r="C91" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">hari ini saya menjadi saksi pernikahan lila dan bimo mempelai adalah putra dari sri haryani sespri yang bekerja </t>
+          <t>selamat natal untuk saudarasaudaraku umat kristiani semoga kasih dan damai senantiasa menyertai kita semua</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'saya', 'menjadi', 'saksi', 'pernikahan', 'lila', 'dan', 'bimo', 'mempelai', 'adalah', 'putra', 'dari', 'sri', 'haryani', 'sespri', 'yang', 'bekerja']</t>
+          <t>['selamat', 'natal', 'untuk', 'saudarasaudaraku', 'umat', 'kristiani', 'semoga', 'kasih', 'dan', 'damai', 'senantiasa', 'menyertai', 'kita', 'semua']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['selamat', 'natal', 'untuk', 'saudarasaudaraku', 'umat', 'kristiani', 'semoga', 'kasih', 'dan', 'damai', 'senantiasa', 'menyertai', 'kita', 'semua']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['saksi', 'pernikahan', 'lila', 'bimo', 'mempelai', 'putra', 'sri', 'haryani', 'sespri']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['saksi', 'nikah', 'lila', 'bimo', 'mempelai', 'putra', 'sri', 'haryani', 'sespri']</t>
+          <t>['selamat', 'natal', 'saudarasaudaraku', 'umat', 'kristiani', 'semoga', 'kasih', 'damai', 'senantiasa', 'menyertai']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['selamat', 'natal', 'saudarasaudaraku', 'umat', 'kristiani', 'moga', 'kasih', 'damai', 'senantiasa', 'serta']</t>
         </is>
       </c>
     </row>
@@ -3711,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>23589</v>
+        <v>30833</v>
       </c>
       <c r="C92" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt amanah saat serah terima kaki palsu paman dari riska ulil amri menyampaikan terima kasih kepada aman</t>
+          <t>rt cerita kembalinya pendiri opm nicholas jouwe ke pangkuan ibu pertiwi</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'amanah', 'saat', 'serah', 'terima', 'kaki', 'palsu', 'paman', 'dari', 'riska', 'ulil', 'amri', 'menyampaikan', 'terima', 'kasih', 'kepada', 'aman']</t>
+          <t>['rt', 'cerita', 'kembalinya', 'pendiri', 'opm', 'nicholas', 'jouwe', 'ke', 'pangkuan', 'ibu', 'pertiwi']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'cerita', 'kembalinya', 'pendiri', 'organisasi, papua, merdeka', 'nicholas', 'jouwe', 'ke', 'pangkuan', 'ibu', 'pertiwi']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['amanah', 'serah', 'terima', 'kaki', 'palsu', 'paman', 'riska', 'ulil', 'amri', 'terima', 'kasih', 'aman']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['amanah', 'serah', 'terima', 'kaki', 'palsu', 'paman', 'riska', 'ulil', 'amri', 'terima', 'kasih', 'aman']</t>
+          <t>['cerita', 'kembalinya', 'pendiri', 'organisasi, papua, merdeka', 'nicholas', 'jouwe', 'pangkuan', 'pertiwi']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['cerita', 'kembali', 'diri', 'organisasi papua merdeka', 'nicholas', 'jouwe', 'pangku', 'pertiwi']</t>
         </is>
       </c>
     </row>
@@ -3747,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>23590</v>
+        <v>30834</v>
       </c>
       <c r="C93" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>rt amanah kaki palsu diberikan secara simbolis di hotel aston rasuna jakarta yang merupakan tempat tinggal sementara keluarga ris</t>
+          <t xml:space="preserve">saat pandemi covid seperti sekarang ini olahraga amat penting kita bisa melawan covid dengan berolahraga </t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rt', 'amanah', 'kaki', 'palsu', 'diberikan', 'secara', 'simbolis', 'di', 'hotel', 'aston', 'rasuna', 'jakarta', 'yang', 'merupakan', 'tempat', 'tinggal', 'sementara', 'keluarga', 'ris']</t>
+          <t>['saat', 'pandemi', 'covid', 'seperti', 'sekarang', 'ini', 'olahraga', 'amat', 'penting', 'kita', 'bisa', 'melawan', 'covid', 'dengan', 'berolahraga']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['saat', 'pandemi', 'covid', 'seperti', 'sekarang', 'ini', 'olahraga', 'amat', 'penting', 'kita', 'bisa', 'melawan', 'covid', 'dengan', 'berolahraga']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['amanah', 'kaki', 'palsu', 'simbolis', 'hotel', 'aston', 'rasuna', 'jakarta', 'tinggal', 'keluarga', 'ris']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['amanah', 'kaki', 'palsu', 'simbolis', 'hotel', 'aston', 'rasuna', 'jakarta', 'tinggal', 'keluarga', 'ris']</t>
+          <t>['pandemi', 'covid', 'olahraga', 'melawan', 'covid', 'berolahraga']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['pandemi', 'covid', 'olahraga', 'lawan', 'covid', 'olahraga']</t>
         </is>
       </c>
     </row>
@@ -3783,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>23591</v>
+        <v>30835</v>
       </c>
       <c r="C94" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>rt amanah sebab setelah sebelumnya pada bulan maret riska harus menjalani amputasi di rspad gatot subroto dan serangkaian kemotera</t>
+          <t>pagi tadi main tenis bareng ditha dan bagi saya tiada hari tanpa olahraga karena olahraga selain bis</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['rt', 'amanah', 'sebab', 'setelah', 'sebelumnya', 'pada', 'bulan', 'maret', 'riska', 'harus', 'menjalani', 'amputasi', 'di', 'rspad', 'gatot', 'subroto', 'dan', 'serangkaian', 'kemotera']</t>
+          <t>['pagi', 'tadi', 'main', 'tenis', 'bareng', 'ditha', 'dan', 'bagi', 'saya', 'tiada', 'hari', 'tanpa', 'olahraga', 'karena', 'olahraga', 'selain', 'bis']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['pagi', 'tadi', 'main', 'tenis', 'bareng', 'ditha', 'dan', 'bagi', 'saya', 'tiada', 'hari', 'tanpa', 'olahraga', 'karena', 'olahraga', 'selain', 'bis']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['amanah', 'maret', 'riska', 'menjalani', 'amputasi', 'rspad', 'gatot', 'subroto', 'serangkaian', 'kemotera']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['amanah', 'maret', 'riska', 'jalan', 'amputasi', 'rspad', 'gatot', 'subroto', 'rangkai', 'kemotera']</t>
+          <t>['pagi', 'main', 'tenis', 'bareng', 'ditha', 'tiada', 'olahraga', 'olahraga', 'bis']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['pagi', 'main', 'tenis', 'bareng', 'ditha', 'tiada', 'olahraga', 'olahraga', 'bis']</t>
         </is>
       </c>
     </row>
@@ -3819,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>23592</v>
+        <v>30836</v>
       </c>
       <c r="C95" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt amanah kaki baru untuk riska riska ramadila atlet voli asal kelurahan lipat kain kecamatan kampar kiri kabupaten kampar</t>
+          <t>terimakasih kepada pengurus siwo pwi pusat dan daerah yang sudah mengapresiasi apa yang saya lakukan dalam memajuka</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'amanah', 'kaki', 'baru', 'untuk', 'riska', 'riska', 'ramadila', 'atlet', 'voli', 'asal', 'kelurahan', 'lipat', 'kain', 'kecamatan', 'kampar', 'kiri', 'kabupaten', 'kampar']</t>
+          <t>['terimakasih', 'kepada', 'pengurus', 'siwo', 'pwi', 'pusat', 'dan', 'daerah', 'yang', 'sudah', 'mengapresiasi', 'apa', 'yang', 'saya', 'lakukan', 'dalam', 'memajuka']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['terima, kasih', 'kepada', 'pengurus', 'siwo', 'pwi', 'pusat', 'dan', 'daerah', 'yang', 'sudah', 'mengapresiasi', 'apa', 'yang', 'saya', 'lakukan', 'dalam', 'memajuka']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['amanah', 'kaki', 'riska', 'riska', 'ramadila', 'atlet', 'voli', 'kelurahan', 'lipat', 'kain', 'kecamatan', 'kampar', 'kiri', 'kabupaten', 'kampar']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['amanah', 'kaki', 'riska', 'riska', 'ramadila', 'atlet', 'voli', 'lurah', 'lipat', 'kain', 'camat', 'kampar', 'kiri', 'kabupaten', 'kampar']</t>
+          <t>['terima, kasih', 'pengurus', 'siwo', 'pwi', 'pusat', 'daerah', 'mengapresiasi', 'lakukan', 'memajuka']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'urus', 'siwo', 'pwi', 'pusat', 'daerah', 'apresiasi', 'laku', 'memajuka']</t>
         </is>
       </c>
     </row>
@@ -3855,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23593</v>
+        <v>30837</v>
       </c>
       <c r="C96" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">memenuhi undangan bambang soesatyo untuk ngobrol santai di podcast ngompol bamsoet di channel youtubenya kita </t>
+          <t>dalam kesempatan itu saya menyampaikan bahwa saya insyaallah akan hadir pada malam anugerah olahraga siwo pwi</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['memenuhi', 'undangan', 'bambang', 'soesatyo', 'untuk', 'ngobrol', 'santai', 'di', 'podcast', 'ngompol', 'bamsoet', 'di', 'channel', 'youtubenya', 'kita']</t>
+          <t>['dalam', 'kesempatan', 'itu', 'saya', 'menyampaikan', 'bahwa', 'saya', 'insyaallah', 'akan', 'hadir', 'pada', 'malam', 'anugerah', 'olahraga', 'siwo', 'pwi']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['dalam', 'kesempatan', 'itu', 'saya', 'menyampaikan', 'bahwa', 'saya', 'insyaallah', 'akan', 'hadir', 'pada', 'malam', 'anugerah', 'olahraga', 'siwo', 'pwi']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['memenuhi', 'undangan', 'bambang', 'soesatyo', 'ngobrol', 'santai', 'podcast', 'ngompol', 'bamsoet', 'channel', 'youtubenya']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['penuh', 'undang', 'bambang', 'soesatyo', 'ngobrol', 'santai', 'podcast', 'ngompol', 'bamsoet', 'channel', 'youtubenya']</t>
+          <t>['kesempatan', 'insyaallah', 'hadir', 'malam', 'anugerah', 'olahraga', 'siwo', 'pwi']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['sempat', 'insyaallah', 'hadir', 'malam', 'anugerah', 'olahraga', 'siwo', 'pwi']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>23594</v>
+        <v>30838</v>
       </c>
       <c r="C97" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">sebagai bukti saat saya menjabat ketua umum kadin indonesia saya menerbitkan keputusan tentang pengangkatan dan </t>
+          <t>sungguh saya senang dan gembira atas apresiasi tersebut meski terus terang saja saya selama ini tak pernah memiki</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['sebagai', 'bukti', 'saat', 'saya', 'menjabat', 'ketua', 'umum', 'kadin', 'indonesia', 'saya', 'menerbitkan', 'keputusan', 'tentang', 'pengangkatan', 'dan']</t>
+          <t>['sungguh', 'saya', 'senang', 'dan', 'gembira', 'atas', 'apresiasi', 'tersebut', 'meski', 'terus', 'terang', 'saja', 'saya', 'selama', 'ini', 'tak', 'pernah', 'memiki']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['sungguh', 'saya', 'senang', 'dan', 'gembira', 'atas', 'apresiasi', 'tersebut', 'meski', 'terus', 'terang', 'saja', 'saya', 'selama', 'ini', 'tak', 'pernah', 'memiki']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['bukti', 'menjabat', 'ketua', 'kadin', 'indonesia', 'menerbitkan', 'keputusan', 'pengangkatan']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['bukti', 'jabat', 'ketua', 'kadin', 'indonesia', 'terbit', 'putus', 'angkat']</t>
+          <t>['sungguh', 'senang', 'gembira', 'apresiasi', 'terang', 'memiki']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['sungguh', 'senang', 'gembira', 'apresiasi', 'terang', 'mik']</t>
         </is>
       </c>
     </row>
@@ -3927,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>23595</v>
+        <v>30839</v>
       </c>
       <c r="C98" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>saat ini ada pihakpihak tertentu yang mengklaim bahwa bani didirikan oleh perorangan saya katakan itu sama sekali</t>
+          <t>keduanya datang menyampaikan kabar bahwa saya terpilih untuk menerima penghargaan lifetime achievement pembina olah</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['saat', 'ini', 'ada', 'pihakpihak', 'tertentu', 'yang', 'mengklaim', 'bahwa', 'bani', 'didirikan', 'oleh', 'perorangan', 'saya', 'katakan', 'itu', 'sama', 'sekali']</t>
+          <t>['keduanya', 'datang', 'menyampaikan', 'kabar', 'bahwa', 'saya', 'terpilih', 'untuk', 'menerima', 'penghargaan', 'lifetime', 'achievement', 'pembina', 'olah']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['keduanya', 'datang', 'menyampaikan', 'kabar', 'bahwa', 'saya', 'terpilih', 'untuk', 'menerima', 'penghargaan', 'lifetime', 'achievement', 'pembina', 'olah']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['pihakpihak', 'mengklaim', 'bani', 'didirikan', 'perorangan']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['pihakpihak', 'klaim', 'bani', 'diri', 'orang']</t>
+          <t>['kabar', 'terpilih', 'menerima', 'penghargaan', 'lifetime', 'achievement', 'pembina', 'olah']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['kabar', 'pilih', 'terima', 'harga', 'lifetime', 'achievement', 'bina', 'olah']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>23596</v>
+        <v>30840</v>
       </c>
       <c r="C99" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>saya mendengarkan informasi lengkap dari ketum kadin soal tuntutan kadin indonesia kepada pihakpihak yang mengaku</t>
+          <t>keduanya adalah wartawan olahraga yang pada saat saya masih aktif mengurus pb pbsi dan por pelita jaya seringkali</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['saya', 'mendengarkan', 'informasi', 'lengkap', 'dari', 'ketum', 'kadin', 'soal', 'tuntutan', 'kadin', 'indonesia', 'kepada', 'pihakpihak', 'yang', 'mengaku']</t>
+          <t>['keduanya', 'adalah', 'wartawan', 'olahraga', 'yang', 'pada', 'saat', 'saya', 'masih', 'aktif', 'mengurus', 'pb', 'pbsi', 'dan', 'por', 'pelita', 'jaya', 'seringkali']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['keduanya', 'adalah', 'wartawan', 'olahraga', 'yang', 'pada', 'saat', 'saya', 'masih', 'aktif', 'mengurus', 'pb', 'persatuan, bulu, tangkis, seluruh, indonesia', 'dan', 'por', 'pelita', 'jaya', 'seringkali']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['mendengarkan', 'informasi', 'lengkap', 'ketum', 'kadin', 'tuntutan', 'kadin', 'indonesia', 'pihakpihak', 'mengaku']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['dengar', 'informasi', 'lengkap', 'tum', 'kadin', 'tuntut', 'kadin', 'indonesia', 'pihakpihak', 'aku']</t>
+          <t>['wartawan', 'olahraga', 'aktif', 'mengurus', 'pb', 'persatuan, bulu, tangkis, seluruh, indonesia', 'por', 'pelita', 'jaya', 'seringkali']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['wartawan', 'olahraga', 'aktif', 'urus', 'pb', 'satu bulu tangkis seluruh indonesia', 'por', 'pelita', 'jaya', 'seringkali']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>23597</v>
+        <v>30841</v>
       </c>
       <c r="C100" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>meski dalam kondisi pandemi dan pembatasan sosial kita harus tetap produktif alhamdulillah saat ini teknologi sud</t>
+          <t>saya menerima ketua seksi wartawan olahraga persatuan wartawan indonesia siwo pwi pusat aagwa ariwangsa dan penas</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['meski', 'dalam', 'kondisi', 'pandemi', 'dan', 'pembatasan', 'sosial', 'kita', 'harus', 'tetap', 'produktif', 'alhamdulillah', 'saat', 'ini', 'teknologi', 'sud']</t>
+          <t>['saya', 'menerima', 'ketua', 'seksi', 'wartawan', 'olahraga', 'persatuan', 'wartawan', 'indonesia', 'siwo', 'pwi', 'pusat', 'aagwa', 'ariwangsa', 'dan', 'penas']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['saya', 'menerima', 'ketua', 'seksi', 'wartawan', 'olahraga', 'persatuan', 'wartawan', 'indonesia', 'siwo', 'pwi', 'pusat', 'aagwa', 'ariwangsa', 'dan', 'penas']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['kondisi', 'pandemi', 'pembatasan', 'sosial', 'produktif', 'alhamdulillah', 'teknologi', 'sud']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['kondisi', 'pandemi', 'batas', 'sosial', 'produktif', 'alhamdulillah', 'teknologi', 'sud']</t>
+          <t>['menerima', 'ketua', 'seksi', 'wartawan', 'olahraga', 'persatuan', 'wartawan', 'indonesia', 'siwo', 'pwi', 'pusat', 'aagwa', 'ariwangsa', 'penas']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['terima', 'ketua', 'seksi', 'wartawan', 'olahraga', 'satu', 'wartawan', 'indonesia', 'siwo', 'pwi', 'pusat', 'aagwa', 'ariwangsa', 'nas']</t>
         </is>
       </c>
     </row>
@@ -4035,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>23598</v>
+        <v>30842</v>
       </c>
       <c r="C101" t="n">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>selamat hari ulang tahun tentara nasional indonesia tni yang ke teruslah jadi tentara profesional yang dicin</t>
+          <t>rt mma selangkapnya</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'ulang', 'tahun', 'tentara', 'nasional', 'indonesia', 'tni', 'yang', 'ke', 'teruslah', 'jadi', 'tentara', 'profesional', 'yang', 'dicin']</t>
+          <t>['rt', 'mma', 'selangkapnya']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'mma', 'selangkapnya']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'tentara', 'nasional', 'indonesia', 'tni', 'teruslah', 'tentara', 'profesional', 'dicin']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'tentara', 'nasional', 'indonesia', 'tni', 'terus', 'tentara', 'profesional', 'dicin']</t>
+          <t>['mma', 'selangkapnya']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['mma', 'langkap']</t>
         </is>
       </c>
     </row>
